--- a/Document/技能列表.xlsx
+++ b/Document/技能列表.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技能选择目标" sheetId="2" r:id="rId2"/>
+    <sheet name="技能生效目标" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="275">
   <si>
     <t>技能ID</t>
   </si>
@@ -37,6 +39,813 @@
   </si>
   <si>
     <t>技能生效对象</t>
+  </si>
+  <si>
+    <t>增加当前生命值（点数）</t>
+  </si>
+  <si>
+    <t>增加当前生命值（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前生命值（点数）</t>
+  </si>
+  <si>
+    <t>减少当前生命值（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前生命值</t>
+  </si>
+  <si>
+    <t>增加当前生命值上限（点数）</t>
+  </si>
+  <si>
+    <t>增加当前生命值上限（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前生命值上限（点数）</t>
+  </si>
+  <si>
+    <t>减少当前生命值上限（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前生命值上限</t>
+  </si>
+  <si>
+    <t>增加当前攻击力（点数）</t>
+  </si>
+  <si>
+    <t>增加当前攻击力（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前攻击力（点数）</t>
+  </si>
+  <si>
+    <t>减少当前攻击力（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前攻击力</t>
+  </si>
+  <si>
+    <t>增加当前攻击力上限（点数）</t>
+  </si>
+  <si>
+    <t>增加当前攻击力上限（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前攻击力上限（点数）</t>
+  </si>
+  <si>
+    <t>减少当前攻击力上限（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前攻击力上限</t>
+  </si>
+  <si>
+    <t>增加当前攻击范围（点数）</t>
+  </si>
+  <si>
+    <t>增加当前攻击范围（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前攻击范围（点数）</t>
+  </si>
+  <si>
+    <t>减少当前攻击范围（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前攻击范围</t>
+  </si>
+  <si>
+    <t>增加当前攻击范围上限（点数）</t>
+  </si>
+  <si>
+    <t>增加当前攻击范围上限（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前攻击范围上限（点数）</t>
+  </si>
+  <si>
+    <t>减少当前攻击范围上限（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前攻击范围上限</t>
+  </si>
+  <si>
+    <t>增加当前移动力（点数）</t>
+  </si>
+  <si>
+    <t>增加当前移动力（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前移动力（点数）</t>
+  </si>
+  <si>
+    <t>减少当前移动力（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前移动力</t>
+  </si>
+  <si>
+    <t>增加当前移动力上限（点数）</t>
+  </si>
+  <si>
+    <t>增加当前移动力上限（百分比）</t>
+  </si>
+  <si>
+    <t>减少当前移动力上限（点数）</t>
+  </si>
+  <si>
+    <t>减少当前移动力上限（百分比）</t>
+  </si>
+  <si>
+    <t>改变当前移动力上限</t>
+  </si>
+  <si>
+    <t>移动到指定地点</t>
+  </si>
+  <si>
+    <t>增加伤害（点数）</t>
+  </si>
+  <si>
+    <t>增加伤害（百分比）</t>
+  </si>
+  <si>
+    <t>减少伤害（点数）</t>
+  </si>
+  <si>
+    <t>减少伤害（百分比）</t>
+  </si>
+  <si>
+    <t>改变伤害</t>
+  </si>
+  <si>
+    <t>施放技能</t>
+  </si>
+  <si>
+    <t>技能附加到单位</t>
+  </si>
+  <si>
+    <t>技能从单位移除</t>
+  </si>
+  <si>
+    <t>定身激活</t>
+  </si>
+  <si>
+    <t>定身解除</t>
+  </si>
+  <si>
+    <t>缴械激活</t>
+  </si>
+  <si>
+    <t>缴械解除</t>
+  </si>
+  <si>
+    <t>沉默激活</t>
+  </si>
+  <si>
+    <t>沉默解除</t>
+  </si>
+  <si>
+    <t>眩晕激活</t>
+  </si>
+  <si>
+    <t>眩晕解除</t>
+  </si>
+  <si>
+    <t>免疫激活</t>
+  </si>
+  <si>
+    <t>免疫解除</t>
+  </si>
+  <si>
+    <t>护盾激活</t>
+  </si>
+  <si>
+    <t>护盾解除</t>
+  </si>
+  <si>
+    <t>隐蔽激活</t>
+  </si>
+  <si>
+    <t>隐蔽解除</t>
+  </si>
+  <si>
+    <t>隐身激活</t>
+  </si>
+  <si>
+    <t>隐身解除</t>
+  </si>
+  <si>
+    <t>召唤小兵</t>
+  </si>
+  <si>
+    <t>召唤从者</t>
+  </si>
+  <si>
+    <t>召唤少女</t>
+  </si>
+  <si>
+    <t>召唤物消失</t>
+  </si>
+  <si>
+    <t>召唤池内单位增加</t>
+  </si>
+  <si>
+    <t>召唤池单位补满</t>
+  </si>
+  <si>
+    <t>召唤池单位刷新并补满</t>
+  </si>
+  <si>
+    <t>卡片池卡片增加</t>
+  </si>
+  <si>
+    <t>卡片池卡片移除</t>
+  </si>
+  <si>
+    <t>取消移动</t>
+  </si>
+  <si>
+    <t>取消攻击</t>
+  </si>
+  <si>
+    <t>取消技能</t>
+  </si>
+  <si>
+    <t>取消所有行为</t>
+  </si>
+  <si>
+    <t>TS_01_0001</t>
+  </si>
+  <si>
+    <t>TS_01_0002</t>
+  </si>
+  <si>
+    <t>TS_01_0003</t>
+  </si>
+  <si>
+    <t>TS_01_0004</t>
+  </si>
+  <si>
+    <t>TS_01_0005</t>
+  </si>
+  <si>
+    <t>TS_01_0011</t>
+  </si>
+  <si>
+    <t>TS_01_0012</t>
+  </si>
+  <si>
+    <t>TS_01_0013</t>
+  </si>
+  <si>
+    <t>TS_01_0014</t>
+  </si>
+  <si>
+    <t>TS_01_0015</t>
+  </si>
+  <si>
+    <t>TS_02_0001</t>
+  </si>
+  <si>
+    <t>TS_02_0002</t>
+  </si>
+  <si>
+    <t>TS_02_0003</t>
+  </si>
+  <si>
+    <t>TS_02_0004</t>
+  </si>
+  <si>
+    <t>TS_02_0005</t>
+  </si>
+  <si>
+    <t>TS_02_0011</t>
+  </si>
+  <si>
+    <t>TS_02_0012</t>
+  </si>
+  <si>
+    <t>TS_02_0013</t>
+  </si>
+  <si>
+    <t>TS_02_0014</t>
+  </si>
+  <si>
+    <t>TS_02_0015</t>
+  </si>
+  <si>
+    <t>TS_03_0001</t>
+  </si>
+  <si>
+    <t>TS_03_0002</t>
+  </si>
+  <si>
+    <t>TS_03_0003</t>
+  </si>
+  <si>
+    <t>TS_03_0004</t>
+  </si>
+  <si>
+    <t>TS_03_0005</t>
+  </si>
+  <si>
+    <t>TS_03_0011</t>
+  </si>
+  <si>
+    <t>TS_03_0012</t>
+  </si>
+  <si>
+    <t>TS_03_0013</t>
+  </si>
+  <si>
+    <t>TS_03_0014</t>
+  </si>
+  <si>
+    <t>TS_03_0015</t>
+  </si>
+  <si>
+    <t>TS_04_0001</t>
+  </si>
+  <si>
+    <t>TS_04_0002</t>
+  </si>
+  <si>
+    <t>TS_04_0003</t>
+  </si>
+  <si>
+    <t>TS_04_0004</t>
+  </si>
+  <si>
+    <t>TS_04_0005</t>
+  </si>
+  <si>
+    <t>TS_04_0011</t>
+  </si>
+  <si>
+    <t>TS_04_0012</t>
+  </si>
+  <si>
+    <t>TS_04_0013</t>
+  </si>
+  <si>
+    <t>TS_04_0014</t>
+  </si>
+  <si>
+    <t>TS_04_0015</t>
+  </si>
+  <si>
+    <t>TS_04_0021</t>
+  </si>
+  <si>
+    <t>TS_05_0001</t>
+  </si>
+  <si>
+    <t>TS_05_0002</t>
+  </si>
+  <si>
+    <t>TS_05_0003</t>
+  </si>
+  <si>
+    <t>TS_05_0004</t>
+  </si>
+  <si>
+    <t>TS_05_0005</t>
+  </si>
+  <si>
+    <t>TS_06_0001</t>
+  </si>
+  <si>
+    <t>TS_06_0002</t>
+  </si>
+  <si>
+    <t>TS_06_0003</t>
+  </si>
+  <si>
+    <t>TS_06_0011</t>
+  </si>
+  <si>
+    <t>TS_06_0012</t>
+  </si>
+  <si>
+    <t>TS_06_0021</t>
+  </si>
+  <si>
+    <t>TS_06_0022</t>
+  </si>
+  <si>
+    <t>TS_06_0031</t>
+  </si>
+  <si>
+    <t>TS_06_0032</t>
+  </si>
+  <si>
+    <t>TS_06_0041</t>
+  </si>
+  <si>
+    <t>TS_06_0042</t>
+  </si>
+  <si>
+    <t>TS_06_0051</t>
+  </si>
+  <si>
+    <t>TS_06_0052</t>
+  </si>
+  <si>
+    <t>TS_06_0061</t>
+  </si>
+  <si>
+    <t>TS_06_0062</t>
+  </si>
+  <si>
+    <t>TS_06_0071</t>
+  </si>
+  <si>
+    <t>TS_06_0072</t>
+  </si>
+  <si>
+    <t>TS_06_0081</t>
+  </si>
+  <si>
+    <t>TS_06_0082</t>
+  </si>
+  <si>
+    <t>TS_07_0001</t>
+  </si>
+  <si>
+    <t>TS_07_0002</t>
+  </si>
+  <si>
+    <t>TS_07_0003</t>
+  </si>
+  <si>
+    <t>TS_07_0004</t>
+  </si>
+  <si>
+    <t>TS_07_0011</t>
+  </si>
+  <si>
+    <t>TS_07_0012</t>
+  </si>
+  <si>
+    <t>TS_07_0013</t>
+  </si>
+  <si>
+    <t>TS_07_0021</t>
+  </si>
+  <si>
+    <t>TS_07_0022</t>
+  </si>
+  <si>
+    <t>TS_08_0001</t>
+  </si>
+  <si>
+    <t>TS_08_0002</t>
+  </si>
+  <si>
+    <t>TS_08_0003</t>
+  </si>
+  <si>
+    <t>TS_08_0004</t>
+  </si>
+  <si>
+    <t>测试_增加当前生命值（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前生命值（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前生命值（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前生命值（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前生命值</t>
+  </si>
+  <si>
+    <t>测试_增加当前生命值上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前生命值上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前生命值上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前生命值上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前生命值上限</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击力（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击力（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击力（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击力（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前攻击力</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击力上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击力上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击力上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击力上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前攻击力上限</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击范围（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击范围（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击范围（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击范围（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前攻击范围</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击范围上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前攻击范围上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击范围上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前攻击范围上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前攻击范围上限</t>
+  </si>
+  <si>
+    <t>测试_增加当前移动力（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前移动力（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前移动力（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前移动力（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前移动力</t>
+  </si>
+  <si>
+    <t>测试_增加当前移动力上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加当前移动力上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少当前移动力上限（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少当前移动力上限（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变当前移动力上限</t>
+  </si>
+  <si>
+    <t>测试_移动到指定地点</t>
+  </si>
+  <si>
+    <t>测试_增加伤害（点数）</t>
+  </si>
+  <si>
+    <t>测试_增加伤害（百分比）</t>
+  </si>
+  <si>
+    <t>测试_减少伤害（点数）</t>
+  </si>
+  <si>
+    <t>测试_减少伤害（百分比）</t>
+  </si>
+  <si>
+    <t>测试_改变伤害</t>
+  </si>
+  <si>
+    <t>测试_施放技能</t>
+  </si>
+  <si>
+    <t>测试_技能附加到单位</t>
+  </si>
+  <si>
+    <t>测试_技能从单位移除</t>
+  </si>
+  <si>
+    <t>测试_定身激活</t>
+  </si>
+  <si>
+    <t>测试_定身解除</t>
+  </si>
+  <si>
+    <t>测试_缴械激活</t>
+  </si>
+  <si>
+    <t>测试_缴械解除</t>
+  </si>
+  <si>
+    <t>测试_沉默激活</t>
+  </si>
+  <si>
+    <t>测试_沉默解除</t>
+  </si>
+  <si>
+    <t>测试_眩晕激活</t>
+  </si>
+  <si>
+    <t>测试_眩晕解除</t>
+  </si>
+  <si>
+    <t>测试_免疫激活</t>
+  </si>
+  <si>
+    <t>测试_免疫解除</t>
+  </si>
+  <si>
+    <t>测试_护盾激活</t>
+  </si>
+  <si>
+    <t>测试_护盾解除</t>
+  </si>
+  <si>
+    <t>测试_隐蔽激活</t>
+  </si>
+  <si>
+    <t>测试_隐蔽解除</t>
+  </si>
+  <si>
+    <t>测试_隐身激活</t>
+  </si>
+  <si>
+    <t>测试_隐身解除</t>
+  </si>
+  <si>
+    <t>测试_召唤小兵</t>
+  </si>
+  <si>
+    <t>测试_召唤从者</t>
+  </si>
+  <si>
+    <t>测试_召唤少女</t>
+  </si>
+  <si>
+    <t>测试_召唤物消失</t>
+  </si>
+  <si>
+    <t>测试_召唤池内单位增加</t>
+  </si>
+  <si>
+    <t>测试_召唤池单位补满</t>
+  </si>
+  <si>
+    <t>测试_召唤池单位刷新并补满</t>
+  </si>
+  <si>
+    <t>测试_卡片池卡片增加</t>
+  </si>
+  <si>
+    <t>测试_卡片池卡片移除</t>
+  </si>
+  <si>
+    <t>测试_取消移动</t>
+  </si>
+  <si>
+    <t>测试_取消攻击</t>
+  </si>
+  <si>
+    <t>测试_取消技能</t>
+  </si>
+  <si>
+    <t>测试_取消所有行为</t>
+  </si>
+  <si>
+    <t>无目标</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>友方</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>中立</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>非中立</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>非友方</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>非敌方</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>&lt;Skill Id="</t>
+  </si>
+  <si>
+    <t>" Name="</t>
+  </si>
+  <si>
+    <t>" Description="</t>
+  </si>
+  <si>
+    <t>" SelectTargetType="</t>
+  </si>
+  <si>
+    <t>" Cost="</t>
+  </si>
+  <si>
+    <t>" EffectTargetType="</t>
+  </si>
+  <si>
+    <t>"&gt;&lt;/Skill&gt;</t>
   </si>
 </sst>
 </file>
@@ -354,15 +1163,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -380,6 +1189,3362 @@
       </c>
       <c r="L1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>273</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>273</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>272</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>272</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>273</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>272</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>273</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>272</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>273</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>272</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>271</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>272</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>273</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>272</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>271</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>271</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>271</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>271</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>271</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
+        <v>271</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>272</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>271</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>273</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>273</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s">
+        <v>271</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>273</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>271</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>272</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>273</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>271</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>273</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>272</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>273</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>271</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>272</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>273</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" t="s">
+        <v>271</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>272</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>273</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>273</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" t="s">
+        <v>271</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>272</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>273</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>271</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>273</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>271</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>273</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" t="s">
+        <v>271</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>272</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>273</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
+        <v>271</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>273</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" t="s">
+        <v>271</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>273</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>271</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>272</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>273</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>272</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>273</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" t="s">
+        <v>271</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>272</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>273</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" t="s">
+        <v>271</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60" t="s">
+        <v>272</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>273</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" t="s">
+        <v>271</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
+        <v>272</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>273</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" t="s">
+        <v>271</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>273</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>272</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>273</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" t="s">
+        <v>270</v>
+      </c>
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64" t="s">
+        <v>272</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>273</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>272</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>273</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>272</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>273</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>272</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>273</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" t="s">
+        <v>271</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>272</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>273</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s">
+        <v>271</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>272</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>273</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s">
+        <v>271</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>272</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>273</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s">
+        <v>271</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>272</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>273</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>268</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s">
+        <v>271</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>272</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>273</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+      <c r="M72" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
+        <v>270</v>
+      </c>
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s">
+        <v>271</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>272</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>273</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s">
+        <v>271</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>272</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>273</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s">
+        <v>271</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>272</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>273</v>
+      </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76" t="s">
+        <v>270</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s">
+        <v>271</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>272</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>273</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" t="s">
+        <v>270</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s">
+        <v>271</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>272</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>273</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>268</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" t="s">
+        <v>270</v>
+      </c>
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s">
+        <v>271</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>272</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>273</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="M78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>268</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s">
+        <v>271</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>272</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>273</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Document/技能列表.xlsx
+++ b/Document/技能列表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="技能选择目标" sheetId="2" r:id="rId2"/>
     <sheet name="技能生效目标" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="719">
   <si>
     <t>技能ID</t>
   </si>
@@ -846,19 +846,2975 @@
   </si>
   <si>
     <t>"&gt;&lt;/Skill&gt;</t>
+  </si>
+  <si>
+    <t>CD_01_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_魔法蘑菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方获得1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_01_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_01_003</t>
+  </si>
+  <si>
+    <t>CD_01_004</t>
+  </si>
+  <si>
+    <t>CD_01_005</t>
+  </si>
+  <si>
+    <t>CD_01_006</t>
+  </si>
+  <si>
+    <t>CD_01_007</t>
+  </si>
+  <si>
+    <t>CD_01_008</t>
+  </si>
+  <si>
+    <t>CD_01_009</t>
+  </si>
+  <si>
+    <t>卡牌_麻薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付2B并选择一个单位，驱散该单位并治疗其2生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_酒_状态附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付2B并选择一个己方单位，直到该单位下次攻击结算结束，该单位攻击+1并获得伤害加深。不可叠加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_酒_状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_酒_状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_天狗羽扇_状态附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付1B并选择一个己方单位，该单位回合内机动加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付1B并选择一个己方单位，该单位回合内机动加2。</t>
+  </si>
+  <si>
+    <t>支付1B并选择一个己方单位，令其机动+1直至回合结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除羽扇的机动1的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_即将破碎的护身符_状态附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付1B并选择一个单位，该单位获得圣盾。圣盾被移除时，该单位获得持续1回合的伤害加深。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_即将破碎的护身符_状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_即将破碎的护身符_状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_01_010</t>
+  </si>
+  <si>
+    <t>CD_01_011</t>
+  </si>
+  <si>
+    <t>CD_01_012</t>
+  </si>
+  <si>
+    <t>CD_01_013</t>
+  </si>
+  <si>
+    <t>CD_01_014</t>
+  </si>
+  <si>
+    <t>CD_01_015</t>
+  </si>
+  <si>
+    <t>支付2b并选择一个己方单位，令其直线移动2格，移动方式为飞行。然后该单位无法攻击直至回合结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>令一个获得状态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支付2B并选择一个单位，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驱散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支付2B并选择一个己方单位，令其获得状态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，持续至直到该单位下次攻击结算结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态：该单位攻击+1并获得伤害加深。不可叠加。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>护盾状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：该单位受到伤害时，阻止这次伤害结算，并移除该状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>护盾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除一个单位的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付2b并选择一个己方单位，令其直线移动3格，移动方式为飞行。然后该单位无法攻击直至回合结束。</t>
+  </si>
+  <si>
+    <t>然后移除飞行并获得缴械直到回合结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支付2B并选择一个己方单位，令其获得</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并直线移动两格。然后移除飞行并获得缴械直到回合结束。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付2b并选择一个单位，该单位在下次指令时额外进行一次移动且该次移动可以在攻击或者使用技能之后。然后该单位流失2血。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_红魔馆的登月火箭_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_红魔馆的登月火箭_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_疾风一闪_状态获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_疾风一闪_状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疾风一闪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_疾风一闪_状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_01_016</t>
+  </si>
+  <si>
+    <r>
+      <t>支付2B并选择一个单位，该单位获得状态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疾风一闪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_远古欺诈术_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付1B。并展示三张牌。令对方选择其中一张。下个我方回合中这张牌的消耗为0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_01_017</t>
+  </si>
+  <si>
+    <t>CD_01_018</t>
+  </si>
+  <si>
+    <t>CD_01_019</t>
+  </si>
+  <si>
+    <t>CD_01_020</t>
+  </si>
+  <si>
+    <t>支付1B。并展示三张牌。令对方选择其中一张。下个我方回合中这张牌的消耗为1.</t>
+  </si>
+  <si>
+    <t>支付1B。并展示三张牌。令对方选择其中一张。下个我方回合中这张牌的消耗为2.</t>
+  </si>
+  <si>
+    <t>支付1B，选择自己的三张手牌展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_远古欺诈术_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_远古欺诈术_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌_天狗羽扇_状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个自己的回合中，该牌所需要的B降低至0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_01_021</t>
+  </si>
+  <si>
+    <t>PS_01_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_01_002</t>
+  </si>
+  <si>
+    <t>OT_01_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一个单位对一个单位进行攻击宣言之后，询问是否发动。发动后将被攻击单位击退2格，并令其获得状态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减速</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[瞬间]普通攻击可以击退攻击对象距离2并减速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]每回合第一次受到的伤害减半。（减免值向下取整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_01_003</t>
+  </si>
+  <si>
+    <t>瞬间_普通单位_冲撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_普通单位_软软哒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当该单位在本回合内第一次受到伤害的时候，这次伤害减半。所减免的伤害值向下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]攻击后，对攻击对象附加断筋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_普通单位_碎枫_状态附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_普通单位_碎枫_状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断筋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：攻击和移动和使用技能时，需要额外支付1B。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_01_004</t>
+  </si>
+  <si>
+    <t>被动_普通单位_碎枫_状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断筋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_01_005</t>
+  </si>
+  <si>
+    <t>被动_普通单位_恶戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位可以斜向移动。当该单位的一次移动中的起始点和终点的地形不同时，这次移动视为闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_普通单位_欺弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击对射程3以下的单位造成的伤害增加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位攻击时，若被攻击的对象射程不大于2，则额外受到1伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_01_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_01_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_普通单位_捣药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1B和1生命值]指定一距离2以内的己方单位，治疗2生命值并获得圣盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付1B和1血，指定距离2内的一个己方单位，治疗其2生命值并令其获得护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_01_002</t>
+  </si>
+  <si>
+    <t>主动_普通单位_引路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1B]指定距离1以内任一地区，其地形变更为路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支付1B，选择距离1内1地区，将其地形改变为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路 路：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>途径时不消耗机动值。且不会被其中的己方单位阻挡。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_01_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退时，若周围范围1以内单位数量大于1，则对这些单位造成4魔法伤害。若单位数量为1，对该单位造成8魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_普通单位_终焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位死亡时，若周围范围1内单位等于1，对其造成8伤害。若大于1，对其中所有单位造成4伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_01_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_普通单位_回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退时，若周围范围1以内单位数量大于1，则对这些单位造成4魔法伤害。若单位数量为1，对该单位造成9魔法伤害。</t>
+  </si>
+  <si>
+    <t>撤退时，若周围范围1以内单位数量大于1，则对这些单位造成4魔法伤害。若单位数量为1，对该单位造成10魔法伤害。</t>
+  </si>
+  <si>
+    <t>直接致死该单位。并且不进入墓地而进入弃牌区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_01_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_普通单位_自律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当敌方有单位进入该单位周围范围1时，直接致死该单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_01_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_普通单位_炮击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_01_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_普通单位_闪光弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定攻击范围内任一地区，对该地区距离2以内之中所有单位附加闪光。（包括该地区）夜晚时，射程超过1的其他单位对该范围内单位攻击时，射程增加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对该单位攻击的单位附加状态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断筋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。持续2回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指定攻击范围内的一个位置，将选中地区及其距离2内所有单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的射程降低至1.其他的射程大于1的单位在攻击这些单位的时候射程额外加1.效果持续2回合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT-02-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_梦想封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定周围范围2内一个单位，驱散该单位，之后沉默；可以额外支付1B并对该单位造成2魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指定周围范围2内的一个单位，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驱散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该单位，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沉默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该单位。然后弹出询问：是否额外支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1B，选择是则对该单位追加2点伤害。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-02-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_二重结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]己方回合外，灵梦及其周围范围2内的所有单位受到的非近程伤害减少1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方回合外，灵梦和其距离2内的所有单位受到那个单位距离1以外的单位造成的伤害减少1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT-02-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_炽热流星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B]指定直线距离4以内的一个地区并移动至该地区。这次移动可以穿越单位和地形。移动结束后，以原位置为起点，对移动反向直线距离4以内的单位造成3魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付2B，获得飞行，指定直线移动4以内的一个地区，将本单位移动至此。移除飞行。然后对背后的直线范围4内单位造成3伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT-02-003</t>
+  </si>
+  <si>
+    <t>主动_少女单位_极限火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B]选定任一方向直线或斜线距离3以内的所有地区，之后四个回合每个结束阶段对其中单位造成3魔法伤害。再次指令雾雨 魔理沙将中止该技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付2B，选择任一直线或者斜线距离3以内的全部地区。在接下来的四个回合结束阶段对其中所有单位造成3伤害。再次指令该单位也会使这个技能停止接下来的结算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT-02-004</t>
+  </si>
+  <si>
+    <t>[2B]指定距离3以内一个单位，对其附加持续2回合的冰冻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支付2B，选择一个单位，对其附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冰冻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态，持续2回合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT-02-005</t>
+  </si>
+  <si>
+    <t>" Name="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_完美冻结附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_完美冻结状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT-02-006</t>
+  </si>
+  <si>
+    <t>主动_少女单位_完美冻结移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冰冻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_冰袭方阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]当其他单位处在琪露诺周围范围1以内时，其机动值上限降低为1。结束阶段时，若本回合中该技能未被触发过，则治疗2生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当其他单位位于该单位周围范围1时，其机动上限降低至1.回合结束阶段，若没有单位进入该区域同时没有单位从该区域用消耗移动力的移动方式离开，则该单位回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]主要阶段中，若你的B点增加则重置该单位；并且，这个及下个回合中机动值增加2，射程上限增加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_月时计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_永恒的温柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]击坠单位时获得1B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位消灭其他单位时，获得1B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你的主要阶段中，当你的B点增加时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">该单位，并且，机动加2和射程加1，持续2回合。  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：使已行动单位回复到未行动。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_吾刃回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合限一次，弃置一张手牌，获得2B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合最多使用一次。弃置一张自己的手牌，使自己获得2B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_千年吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动]无法沉默。造成伤害时，治疗所造成伤害值一半（向下取整）的生命值；白昼时攻击和射程减少1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该被动无法被沉默。造成伤害时，该单位回复造成伤害值一半【向下取整】的生命值。在白天时攻击和射程降低1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_绯色命运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1B]指定距离2以内一个单位，该单位获得&lt;「千年吸血鬼」&gt;，并且攻击增加1，射程减少1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" Cost="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_009</t>
+  </si>
+  <si>
+    <t>[2B]选定直线距离8以内的一个单位，造成2魔法伤害并使其获得碎心，持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_010</t>
+  </si>
+  <si>
+    <t>主动_少女单位_冈格尼尔之枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_碎心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碎心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：该单位无法被治疗。其他单位对该单位造成伤害时，对进行攻击的单位治疗该次伤害一半的生命值（向下取整）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_011</t>
+  </si>
+  <si>
+    <t>主动_少女单位_碎心移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除碎心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指定直线距离8以内的一个单位，对其造成2伤害并令其获得</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碎心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态.该状态持续2回合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_交错的士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]其他单位指令结束时，若曾移动至与爱丽丝同行，则可以立即无损移动其他一个爱丽丝的同行单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碎心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他单位指令结束时，若其移动阶段停留至与本单位同列的位置上，则可以没有消耗的移动另一个与爱丽丝同列的单位到其机动范围内的一个位置上。 列：地图行列的列，纵向一排。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_013</t>
+  </si>
+  <si>
+    <t>主动_少女单位_广范围操纵人偶2</t>
+  </si>
+  <si>
+    <t>[2B]指定距离3以内一个单位，令其移至该单位机动值距离内任一地区。并对该地区及其周围范围1内单位造成3点魔法伤害。</t>
+  </si>
+  <si>
+    <t>移动后可多支付1B，视为在路径中任一地区发动一次攻击宣言。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_樱花闪闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动完成后询问是否使用，然后选择一个单位，视为对其进行了一次攻击。这个单位必须在移动中途径的某一个位置的攻击范围内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_天人五衰附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]攻击结算后，该单位直到回合结束获得伤害加深。不可重复获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_008</t>
+  </si>
+  <si>
+    <t>PS_02_009</t>
+  </si>
+  <si>
+    <t>被动_少女单位_伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_伤害加深移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本单位发起的一次攻击结算后，对被攻击单位附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤害加深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤害加深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：每次该单位受到伤害时，该伤害加1，该状态不能叠加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤害加深</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_010</t>
+  </si>
+  <si>
+    <t>被动_少女单位_奇美拉之翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]该单位移动时，改为闪烁至任一无单位地区。</t>
+  </si>
+  <si>
+    <t>被动_少女单位_通往死亡的诱蛾灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以指令对方生命值为1的单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_011</t>
+  </si>
+  <si>
+    <t>被动_少女单位_反魂蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退后，接下来每到第x个准备阶段，选定一个单位造成x魔法伤害。x最多为4。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位死亡后，之后的第X个准备阶段，选择场上的一个单位，对该单位造成X点伤害。X最多为4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_012</t>
+  </si>
+  <si>
+    <t>该单位在指令中的移动阶段，可以选择任一位置，然后闪烁到那个位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_枕石漱流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1B]指定距离4内一个单位，该单位不能攻击宣言也不能被选作攻击对象，自身受到伤害提高2。持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付1B，指定距离4以内的一个单位，这个单位不能进行攻击也不会被选作攻击对象。同时拥有这个技能的单位受到的伤害+2.这些效果持续2个回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_015</t>
+  </si>
+  <si>
+    <t>主动_少女单位_充满魅力的四重结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B]选定周围范围3以内一个2乘2地域。穿越该地域的单位受到1魔法伤害并立即晕眩。持续3回合。穿越两个相邻结界时不触发该效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付2B，选择周围范围3以内的一个2*2区域。穿越该地区的单位立即受到1伤害并被终止指令而且眩晕2回合。这些结界持续3回合。穿越相邻结界不视为一次穿越。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[瞬间]攻击宣言时你可以选定射程内复数个攻击对象并附加狂躁之。持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该单位进行攻击时可以选择任意个自己攻击范围内的单位，并给他们附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狂躁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狂躁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>持续2回合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狂躁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沉默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该单位。若在这个状态自然消失之前，这个单位没有进行过攻击指令，则这个状态自然消失的时候，你可以不消耗B而令这个单位攻击其攻击范围内的一个单位，然后对这个单位再附加持续2回合的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沉默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。  自然消失：到持续时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_004</t>
+  </si>
+  <si>
+    <t>移除狂躁状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狂躁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_午夜的合唱指挥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[后援][2B][限定]所有其他单位的射程和施法范围减少至1。持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要指令该单位就可以使用。一场游戏只能使用一次。令所有单位的射程降低至1.持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_枭的夜鸣声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_狂躁状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_狂躁状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_幻视视差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[瞬间]指定攻击对象时，可指定攻击范围内一单位，你的攻击范围视为该单位的攻击范围，此时伤害来源可视为那个单位。</t>
+  </si>
+  <si>
+    <t>攻击宣言选择攻击对象阶段，询问是否发动。若发动，你选择一个单位，你的射程在这次攻击中视为那个单位的射程，询问是否让该次伤害视为由那个单位发动。【但是伤害数值仍然为本单位的攻击数值】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_幻视视差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动]你的射程，攻击，机动上升已损失生命值的二分之一（向上取整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位的射程，攻击，机动上升已损失生命值的二分之一（向上取整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一回合一次，可将一张手牌视为《天狗的团扇》，指定距离3以内的一个单位使用。文成为《天狗的团扇》的对象时可额外支付1B使效果加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一张手牌，将其视为天狗的团扇，对本单位距离3以内的一个单位发动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_红叶扇风1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文成为《天狗的团扇》的对象时可额外支付1B使效果加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_红叶扇风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位成为卡牌【天狗团扇】的目标时，询问是否额外支付1B使本单位机动额外加1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动]指令文时，移动和攻击总计消耗1B。每回合对文第一次指令结束后重置之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位在一回合中第一次被指令后，重置之。每次指令中，若已经进行了移动，则接下来的攻击不消耗B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_疾走风靡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_吾命几何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[瞬间]当你的B数量变动时，你可以用小町的生命值变动代替之。当小町生命值变动时，可以用B数量变动代替之。B增加对应血量增加，反之亦然。该伤害类型为体力流失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_008</t>
+  </si>
+  <si>
+    <t>瞬间_少女单位_吾命几何2</t>
+  </si>
+  <si>
+    <t>当本单位需要使用B的时候，询问是否支付本单位的同数目的生命值，视为使用了那么多B。需要一个开关来确定是否进行这个询问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当本单位受到伤害时，且剩余的B大于此伤害时，询问是否支付等同于这次伤害数值的B来视为承受了这次伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_生魂流离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]击坠单位时，自身治疗2生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位消灭其他单位时，治疗这个单位2点生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3B]选定周围范围3以内两个持有者相同的单位，或周围范围2以内两个持有者不同的单位。然后将他们的位置互换。若因此将单位移至不能存在的地形，则取消这次交换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到攻击时，取消这次伤害结算，并移除护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疾风一闪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：该单位下次指令时。可以在移动之后或者攻击或使用技能之后额外移动一次。使用后移除。移除后损失2生命</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用过该效果后移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疾风一闪：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该单位下次指令时。在移动之后或者攻击或使用技能之后额外移动一次。使用后移除。移除后损失2生命</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断筋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：攻击和移动和使用技能时，需要额外支付1B。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时间移除断筋状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]可斜向移动。（机动值消耗不变）起点与终点地形不同时，移动方式视为闪烁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冰冻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晕眩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在受到伤害时取消这次伤害结算，改为令该单位现有生命值减半【向上取整】，并移除该状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冰冻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晕眩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在受到伤害时取消这次伤害结算，改为令该单位现有生命值减半【向上取整】，并移除该状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除该状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碎心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：该单位无法被治疗。其他单位对该单位造成伤害时，治疗该次伤害一半的生命值（向下取整）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤害加深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：每次该单位受到伤害时，该伤害加1，该状态不能叠加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_广范围操纵人偶1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B]指定距离3以内一个单位，令其移至该单位机动值距离内任一地区。并对该地区及其周围范围1内单位造成2点魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" Cost="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个己方单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将其移动至其机动范围内任一位置。并对那一位置及其周围范围1内的所有单位造成2伤害。  注：对移动的单位同样有伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狂躁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：相当于沉默。此外，下个回合内，若这些单位不进行攻击宣言，回合结束时你可以选择该单位射程内的一个单位进行攻击宣言。该攻击无损并造成1额外伤害，然后附加沉默。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：该单位攻击+1并获得伤害加深。不可叠加。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击后移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方从中选择一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&gt;&lt;/Skill&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指定距离2内的一个单位，令其获得技能：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>千年吸血鬼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，且攻击加1，射程降低1.并解除其沉默状态。无法叠加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当敌方单位生命值为1且可以行动时，你可以指令他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定两个周围范围3以内的被同一玩家控制的单位。或者选定两个周围范围2以内的被不同玩家控制的单位，交换他们的位置。若因为地形要素使得交换无法进行，则本次操作无法进行【确定键为灰色】 实际确定阵营是否相同的时点是选择单位后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_019</t>
+  </si>
+  <si>
+    <t>主动_少女单位_魂之游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_客星辉煌之夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B或1手牌]指定距离4以内任一地区，对该地区距离1以内的所有单位造成2魔法伤害或治疗2生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动后，询问支付2B还是舍弃一张手牌。然后进行支付。然后询问是治疗还是伤害，最后选择距离4以内的一个位置，对该位置距离1的【不含该位置本身】位置里的单位造成2点治疗或者伤害。【取决于上一个选择】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_020</t>
+  </si>
+  <si>
+    <t>主动_少女单位_红海隔断之日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B或1手牌]指定一个己方单位。该单位获得飞行。该单位移动路径为一条直线时移动距离可增加2。持续1回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动后，询问支付2B还是舍弃一张手牌。然后选择一个单位，该单位在本回合内获得飞行，并且其机动范围里的直线移动的距离增加2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_021</t>
+  </si>
+  <si>
+    <t>主动_少女单位_嫉妒爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3B]指定距离3以内一个单位，造成2回合晕眩，并选择其攻击范围内一个单位，视为对该单位进行一次攻击宣言。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指定距离3以内的一个单位，先给其附加持续二回合的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晕眩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。然后选择其攻击范围内的一个单位，视为其向这个单位进行一次攻击。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_积怨返还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]攻击宣言时，若你生命值不大于3，则结算前先将攻击对象的生命值调整至与帕露西相同，然后附加与帕露西一致的减益。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该单位进行攻击时，若该单位生命不大于3，则在攻击前先将被攻击单位的生命值调整到与该单位相同。然后让那个单位获得此时该单位身上的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不良状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_017</t>
+  </si>
+  <si>
+    <t>被动_少女单位_星熊杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]该单位成为《酒》的对象时，攻击增加1，受到的伤害减少1.持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位被卡牌指定为对象并结算之后。两回合内攻击力增加1，受到的伤害减少1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_三步必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B]指定一个距离为2的单位，2回合后，若其与勇仪的距离为2~4。则对其造成勇仪当前攻击+3的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。指定一个距离为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的单位，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合后，若其与勇仪的距离为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。则对其造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9BBB59"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勇仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_023</t>
+  </si>
+  <si>
+    <t>主动_少女单位_恐怖的回忆1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B]指定距离3以内一个单位，其每次造成的伤害递减2，持续2回合。并且若其已受伤，其每次收到的伤害递加1，持续2回合。该效果可以被驱散。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_024</t>
+  </si>
+  <si>
+    <t>主动_少女单位_恐怖的回忆状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">指定距离3以内的一个单位，为其附加状态 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐怖的回忆。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若其生命不满【已受伤】，则再额外附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤害加深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PS_02_008.这些状态持续2回合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位造成的所有伤害-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐怖的回忆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：该单位造成的所有伤害-2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_025</t>
+  </si>
+  <si>
+    <t>主动_少女单位_恐怖的回忆状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除状态 恐怖的回忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">移除 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐怖的回忆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_026</t>
+  </si>
+  <si>
+    <t>主动_少女单位_想起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动一个已发动的非被动技能。拥有该技能的单位必须在场上。消耗同那个技能。&lt;想起「」&gt;不能在连续两个己方回合内使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个已经发动过技能的单位。可发动技能数大于1的情况，询问发动其已经发动过的哪一个技能。消耗与和效果和那个技能一样。这个技能不能连续两个己方回合被使用。若上个己方回合已经使用，本回合内该技能变灰色【无法使用。】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT_02_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间_少女单位_厌于留影的羞涩蔷薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方回合内，第一次移动单位后，可以立即令觉闪烁至距离2以内的任一位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方回合第一次指令中，移动完单位后，询问是否使用。然后选择本单位的机动范围内的一个位置，将该单位闪烁至该位置。然后继续那个单位的指令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动_少女单位_十凶星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2B和1手牌]将周围范围2中的所有单位尽可能地移动至周围范围1内距空最近的地区。并造成2魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要支付2B和一张手牌才能发动。将周围范围2内的单位尽可能的移动至距离范围1内离本单位最近的位置。并对周围范围1内的单位造成2点伤害。 移动时，优先移动最近的单位，当距离相同时，优先移动先召唤的单位。移动时，优先选择不被阻挡的路线。若均没有被阻挡则路线随机。移动完毕后再进行伤害结算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT_02_028</t>
+  </si>
+  <si>
+    <t>主动_少女单位_Abyss Nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[后援][2B]。下个回合的结束阶段，对自身周围范围1以内所有单位和地形造成2魔法伤害。若有单位因此撤退，再对该范围以内所有单位造成1魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该技能不需要指令也能发动。在下个回合的回合结束阶段，对自身及周围范围2位置内的单位造成2伤害。若有单位因此撤退，则对该范围内的单位再造成1伤害。因为这1点伤害死亡的单位还会再对该范围内单位造成1点伤害。直至造成伤害结束后没有单位死亡时停止结算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动_少女单位_弃者的哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动]该单位周围范围1内有其他单位时，该单位无法被指定为攻击和技能对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位周围范围1内有其他单位时，该单位无法被指定为攻击和技能对象。 但是会吃到AOE，而且对面选择位置之后释放的技能也会砸到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_019</t>
+  </si>
+  <si>
+    <t>被动_少女单位_弹幕偏执症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[被动]恋攻击宣言的对象在下回合移动后，受到（n－1）2的伤害。其中n为路径的地区数。</t>
+  </si>
+  <si>
+    <t>PS_02_020</t>
+  </si>
+  <si>
+    <t>被动_少女单位_弹幕偏执症状态本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位在移动后，受到（n-1)的平方的伤害。N为这次移动的距离。该状态无法驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹幕偏执症</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：该单位在移动后，受到（n-1)的平方的伤害。N为这次移动的距离。该状态无法驱散</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_02_021</t>
+  </si>
+  <si>
+    <t>被动_少女单位_弹幕偏执症状态移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">攻击后给单位附加 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹幕偏执症</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 状态，该状态持续2回合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时间移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">移除 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹幕偏执症</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_01</t>
+  </si>
+  <si>
+    <t>HP_02</t>
+  </si>
+  <si>
+    <t>HP_03</t>
+  </si>
+  <si>
+    <t>HP_04</t>
+  </si>
+  <si>
+    <t>HP_05</t>
+  </si>
+  <si>
+    <t>HP_11</t>
+  </si>
+  <si>
+    <t>HP_12</t>
+  </si>
+  <si>
+    <t>HP_13</t>
+  </si>
+  <si>
+    <t>HP_14</t>
+  </si>
+  <si>
+    <t>HP_15</t>
+  </si>
+  <si>
+    <t>AP_01</t>
+  </si>
+  <si>
+    <t>AP_02</t>
+  </si>
+  <si>
+    <t>AP_03</t>
+  </si>
+  <si>
+    <t>AP_04</t>
+  </si>
+  <si>
+    <t>AP_05</t>
+  </si>
+  <si>
+    <t>AP_11</t>
+  </si>
+  <si>
+    <t>AP_12</t>
+  </si>
+  <si>
+    <t>AP_13</t>
+  </si>
+  <si>
+    <t>AP_14</t>
+  </si>
+  <si>
+    <t>AP_15</t>
+  </si>
+  <si>
+    <t>AR_01</t>
+  </si>
+  <si>
+    <t>AR_02</t>
+  </si>
+  <si>
+    <t>AR_03</t>
+  </si>
+  <si>
+    <t>AR_04</t>
+  </si>
+  <si>
+    <t>AR_05</t>
+  </si>
+  <si>
+    <t>AR_11</t>
+  </si>
+  <si>
+    <t>AR_12</t>
+  </si>
+  <si>
+    <t>AR_13</t>
+  </si>
+  <si>
+    <t>AR_14</t>
+  </si>
+  <si>
+    <t>AR_15</t>
+  </si>
+  <si>
+    <t>MV_01</t>
+  </si>
+  <si>
+    <t>MV_02</t>
+  </si>
+  <si>
+    <t>MV_03</t>
+  </si>
+  <si>
+    <t>MV_04</t>
+  </si>
+  <si>
+    <t>MV_05</t>
+  </si>
+  <si>
+    <t>MV_11</t>
+  </si>
+  <si>
+    <t>MV_12</t>
+  </si>
+  <si>
+    <t>MV_13</t>
+  </si>
+  <si>
+    <t>MV_14</t>
+  </si>
+  <si>
+    <t>MV_15</t>
+  </si>
+  <si>
+    <t>MV_21</t>
+  </si>
+  <si>
+    <t>DM_01</t>
+  </si>
+  <si>
+    <t>DM_02</t>
+  </si>
+  <si>
+    <t>DM_03</t>
+  </si>
+  <si>
+    <t>DM_04</t>
+  </si>
+  <si>
+    <t>DM_05</t>
+  </si>
+  <si>
+    <t>ST_01</t>
+  </si>
+  <si>
+    <t>ST_02</t>
+  </si>
+  <si>
+    <t>ST_03</t>
+  </si>
+  <si>
+    <t>ST_11</t>
+  </si>
+  <si>
+    <t>ST_12</t>
+  </si>
+  <si>
+    <t>ST_21</t>
+  </si>
+  <si>
+    <t>ST_22</t>
+  </si>
+  <si>
+    <t>ST_31</t>
+  </si>
+  <si>
+    <t>ST_32</t>
+  </si>
+  <si>
+    <t>ST_41</t>
+  </si>
+  <si>
+    <t>ST_42</t>
+  </si>
+  <si>
+    <t>ST_51</t>
+  </si>
+  <si>
+    <t>ST_52</t>
+  </si>
+  <si>
+    <t>ST_61</t>
+  </si>
+  <si>
+    <t>ST_62</t>
+  </si>
+  <si>
+    <t>ST_71</t>
+  </si>
+  <si>
+    <t>ST_72</t>
+  </si>
+  <si>
+    <t>ST_81</t>
+  </si>
+  <si>
+    <t>ST_82</t>
+  </si>
+  <si>
+    <t>EN_01</t>
+  </si>
+  <si>
+    <t>EN_02</t>
+  </si>
+  <si>
+    <t>EN_03</t>
+  </si>
+  <si>
+    <t>EN_04</t>
+  </si>
+  <si>
+    <t>EN_11</t>
+  </si>
+  <si>
+    <t>EN_12</t>
+  </si>
+  <si>
+    <t>EN_13</t>
+  </si>
+  <si>
+    <t>EN_21</t>
+  </si>
+  <si>
+    <t>EN_22</t>
+  </si>
+  <si>
+    <t>OT_01</t>
+  </si>
+  <si>
+    <t>OT_02</t>
+  </si>
+  <si>
+    <t>OT_03</t>
+  </si>
+  <si>
+    <t>OT_04</t>
+  </si>
+  <si>
+    <t>"&gt;&lt;SpellEffect SpellEffectBaseId="</t>
+  </si>
+  <si>
+    <t>"&gt;&lt;VariableValue Index="1" Value="1"/&gt;&lt;/SpellEffect&gt;&lt;/Skill&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9BBB59"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -881,8 +3837,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,7 +3905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -978,7 +3940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1163,15 +4125,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O79" sqref="A2:O79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +4158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -1220,7 +4187,7 @@
         <v>272</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>273</v>
@@ -1229,10 +4196,16 @@
         <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N2" t="s">
+        <v>639</v>
+      </c>
+      <c r="O2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -1261,7 +4234,7 @@
         <v>272</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>273</v>
@@ -1270,10 +4243,16 @@
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N3" t="s">
+        <v>640</v>
+      </c>
+      <c r="O3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -1302,7 +4281,7 @@
         <v>272</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>273</v>
@@ -1311,10 +4290,16 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N4" t="s">
+        <v>641</v>
+      </c>
+      <c r="O4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -1343,7 +4328,7 @@
         <v>272</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>273</v>
@@ -1352,10 +4337,16 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N5" t="s">
+        <v>642</v>
+      </c>
+      <c r="O5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -1384,7 +4375,7 @@
         <v>272</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>273</v>
@@ -1393,10 +4384,16 @@
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N6" t="s">
+        <v>643</v>
+      </c>
+      <c r="O6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -1425,7 +4422,7 @@
         <v>272</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>273</v>
@@ -1434,10 +4431,16 @@
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N7" t="s">
+        <v>644</v>
+      </c>
+      <c r="O7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>268</v>
       </c>
@@ -1466,7 +4469,7 @@
         <v>272</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>273</v>
@@ -1475,10 +4478,16 @@
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N8" t="s">
+        <v>645</v>
+      </c>
+      <c r="O8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>268</v>
       </c>
@@ -1507,7 +4516,7 @@
         <v>272</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>273</v>
@@ -1516,10 +4525,16 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N9" t="s">
+        <v>646</v>
+      </c>
+      <c r="O9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -1548,7 +4563,7 @@
         <v>272</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>273</v>
@@ -1557,10 +4572,16 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N10" t="s">
+        <v>647</v>
+      </c>
+      <c r="O10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -1589,7 +4610,7 @@
         <v>272</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>273</v>
@@ -1598,10 +4619,16 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N11" t="s">
+        <v>648</v>
+      </c>
+      <c r="O11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -1630,7 +4657,7 @@
         <v>272</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>273</v>
@@ -1639,10 +4666,16 @@
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N12" t="s">
+        <v>649</v>
+      </c>
+      <c r="O12" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>268</v>
       </c>
@@ -1671,7 +4704,7 @@
         <v>272</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>273</v>
@@ -1680,10 +4713,16 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N13" t="s">
+        <v>650</v>
+      </c>
+      <c r="O13" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>268</v>
       </c>
@@ -1712,7 +4751,7 @@
         <v>272</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>273</v>
@@ -1721,10 +4760,16 @@
         <v>7</v>
       </c>
       <c r="M14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N14" t="s">
+        <v>651</v>
+      </c>
+      <c r="O14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -1753,7 +4798,7 @@
         <v>272</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>273</v>
@@ -1762,10 +4807,16 @@
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N15" t="s">
+        <v>652</v>
+      </c>
+      <c r="O15" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -1794,7 +4845,7 @@
         <v>272</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>273</v>
@@ -1803,10 +4854,16 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N16" t="s">
+        <v>653</v>
+      </c>
+      <c r="O16" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -1835,7 +4892,7 @@
         <v>272</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>273</v>
@@ -1844,10 +4901,16 @@
         <v>7</v>
       </c>
       <c r="M17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N17" t="s">
+        <v>654</v>
+      </c>
+      <c r="O17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -1876,7 +4939,7 @@
         <v>272</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>273</v>
@@ -1885,10 +4948,16 @@
         <v>7</v>
       </c>
       <c r="M18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N18" t="s">
+        <v>655</v>
+      </c>
+      <c r="O18" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -1917,7 +4986,7 @@
         <v>272</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>273</v>
@@ -1926,10 +4995,16 @@
         <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N19" t="s">
+        <v>656</v>
+      </c>
+      <c r="O19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -1958,7 +5033,7 @@
         <v>272</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>273</v>
@@ -1967,10 +5042,16 @@
         <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N20" t="s">
+        <v>657</v>
+      </c>
+      <c r="O20" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>268</v>
       </c>
@@ -1999,7 +5080,7 @@
         <v>272</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>273</v>
@@ -2008,10 +5089,16 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N21" t="s">
+        <v>658</v>
+      </c>
+      <c r="O21" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -2040,7 +5127,7 @@
         <v>272</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>273</v>
@@ -2049,10 +5136,16 @@
         <v>7</v>
       </c>
       <c r="M22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N22" t="s">
+        <v>659</v>
+      </c>
+      <c r="O22" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -2081,7 +5174,7 @@
         <v>272</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>273</v>
@@ -2090,10 +5183,16 @@
         <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N23" t="s">
+        <v>660</v>
+      </c>
+      <c r="O23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>268</v>
       </c>
@@ -2122,7 +5221,7 @@
         <v>272</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
         <v>273</v>
@@ -2131,10 +5230,16 @@
         <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N24" t="s">
+        <v>661</v>
+      </c>
+      <c r="O24" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -2163,7 +5268,7 @@
         <v>272</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>273</v>
@@ -2172,10 +5277,16 @@
         <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N25" t="s">
+        <v>662</v>
+      </c>
+      <c r="O25" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>268</v>
       </c>
@@ -2204,7 +5315,7 @@
         <v>272</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
         <v>273</v>
@@ -2213,10 +5324,16 @@
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N26" t="s">
+        <v>663</v>
+      </c>
+      <c r="O26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -2245,7 +5362,7 @@
         <v>272</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>273</v>
@@ -2254,10 +5371,16 @@
         <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N27" t="s">
+        <v>664</v>
+      </c>
+      <c r="O27" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -2286,7 +5409,7 @@
         <v>272</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>273</v>
@@ -2295,10 +5418,16 @@
         <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N28" t="s">
+        <v>665</v>
+      </c>
+      <c r="O28" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>268</v>
       </c>
@@ -2327,7 +5456,7 @@
         <v>272</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>273</v>
@@ -2336,10 +5465,16 @@
         <v>7</v>
       </c>
       <c r="M29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N29" t="s">
+        <v>666</v>
+      </c>
+      <c r="O29" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>268</v>
       </c>
@@ -2368,7 +5503,7 @@
         <v>272</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>273</v>
@@ -2377,10 +5512,16 @@
         <v>7</v>
       </c>
       <c r="M30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N30" t="s">
+        <v>667</v>
+      </c>
+      <c r="O30" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>268</v>
       </c>
@@ -2409,7 +5550,7 @@
         <v>272</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>273</v>
@@ -2418,10 +5559,16 @@
         <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N31" t="s">
+        <v>668</v>
+      </c>
+      <c r="O31" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>268</v>
       </c>
@@ -2450,7 +5597,7 @@
         <v>272</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
         <v>273</v>
@@ -2459,10 +5606,16 @@
         <v>7</v>
       </c>
       <c r="M32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N32" t="s">
+        <v>669</v>
+      </c>
+      <c r="O32" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>268</v>
       </c>
@@ -2491,7 +5644,7 @@
         <v>272</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>273</v>
@@ -2500,10 +5653,16 @@
         <v>7</v>
       </c>
       <c r="M33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N33" t="s">
+        <v>670</v>
+      </c>
+      <c r="O33" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>268</v>
       </c>
@@ -2532,7 +5691,7 @@
         <v>272</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>273</v>
@@ -2541,10 +5700,16 @@
         <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N34" t="s">
+        <v>671</v>
+      </c>
+      <c r="O34" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -2573,7 +5738,7 @@
         <v>272</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>273</v>
@@ -2582,10 +5747,16 @@
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N35" t="s">
+        <v>672</v>
+      </c>
+      <c r="O35" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>268</v>
       </c>
@@ -2614,7 +5785,7 @@
         <v>272</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>273</v>
@@ -2623,10 +5794,16 @@
         <v>7</v>
       </c>
       <c r="M36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N36" t="s">
+        <v>673</v>
+      </c>
+      <c r="O36" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>268</v>
       </c>
@@ -2655,7 +5832,7 @@
         <v>272</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>273</v>
@@ -2664,10 +5841,16 @@
         <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N37" t="s">
+        <v>674</v>
+      </c>
+      <c r="O37" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -2696,7 +5879,7 @@
         <v>272</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
         <v>273</v>
@@ -2705,10 +5888,16 @@
         <v>7</v>
       </c>
       <c r="M38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N38" t="s">
+        <v>675</v>
+      </c>
+      <c r="O38" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>268</v>
       </c>
@@ -2737,7 +5926,7 @@
         <v>272</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>273</v>
@@ -2746,10 +5935,16 @@
         <v>7</v>
       </c>
       <c r="M39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N39" t="s">
+        <v>676</v>
+      </c>
+      <c r="O39" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>268</v>
       </c>
@@ -2778,7 +5973,7 @@
         <v>272</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>273</v>
@@ -2787,10 +5982,16 @@
         <v>7</v>
       </c>
       <c r="M40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N40" t="s">
+        <v>677</v>
+      </c>
+      <c r="O40" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>268</v>
       </c>
@@ -2819,7 +6020,7 @@
         <v>272</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>273</v>
@@ -2828,10 +6029,16 @@
         <v>7</v>
       </c>
       <c r="M41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N41" t="s">
+        <v>678</v>
+      </c>
+      <c r="O41" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -2860,7 +6067,7 @@
         <v>272</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="s">
         <v>273</v>
@@ -2869,10 +6076,16 @@
         <v>7</v>
       </c>
       <c r="M42" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N42" t="s">
+        <v>679</v>
+      </c>
+      <c r="O42" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>268</v>
       </c>
@@ -2901,7 +6114,7 @@
         <v>272</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
         <v>273</v>
@@ -2910,10 +6123,16 @@
         <v>7</v>
       </c>
       <c r="M43" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N43" t="s">
+        <v>680</v>
+      </c>
+      <c r="O43" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>268</v>
       </c>
@@ -2942,7 +6161,7 @@
         <v>272</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>273</v>
@@ -2951,10 +6170,16 @@
         <v>7</v>
       </c>
       <c r="M44" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N44" t="s">
+        <v>681</v>
+      </c>
+      <c r="O44" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>268</v>
       </c>
@@ -2983,7 +6208,7 @@
         <v>272</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>273</v>
@@ -2992,10 +6217,16 @@
         <v>7</v>
       </c>
       <c r="M45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N45" t="s">
+        <v>682</v>
+      </c>
+      <c r="O45" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>268</v>
       </c>
@@ -3024,7 +6255,7 @@
         <v>272</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
         <v>273</v>
@@ -3033,10 +6264,16 @@
         <v>7</v>
       </c>
       <c r="M46" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N46" t="s">
+        <v>683</v>
+      </c>
+      <c r="O46" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>268</v>
       </c>
@@ -3065,7 +6302,7 @@
         <v>272</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="s">
         <v>273</v>
@@ -3074,10 +6311,16 @@
         <v>7</v>
       </c>
       <c r="M47" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N47" t="s">
+        <v>684</v>
+      </c>
+      <c r="O47" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -3106,7 +6349,7 @@
         <v>272</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>273</v>
@@ -3115,10 +6358,16 @@
         <v>7</v>
       </c>
       <c r="M48" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N48" t="s">
+        <v>685</v>
+      </c>
+      <c r="O48" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>268</v>
       </c>
@@ -3147,7 +6396,7 @@
         <v>272</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
         <v>273</v>
@@ -3156,10 +6405,16 @@
         <v>7</v>
       </c>
       <c r="M49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N49" t="s">
+        <v>686</v>
+      </c>
+      <c r="O49" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>268</v>
       </c>
@@ -3188,7 +6443,7 @@
         <v>272</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="s">
         <v>273</v>
@@ -3197,10 +6452,16 @@
         <v>7</v>
       </c>
       <c r="M50" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N50" t="s">
+        <v>687</v>
+      </c>
+      <c r="O50" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>268</v>
       </c>
@@ -3229,7 +6490,7 @@
         <v>272</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>273</v>
@@ -3238,10 +6499,16 @@
         <v>7</v>
       </c>
       <c r="M51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N51" t="s">
+        <v>688</v>
+      </c>
+      <c r="O51" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -3270,7 +6537,7 @@
         <v>272</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
         <v>273</v>
@@ -3279,10 +6546,16 @@
         <v>7</v>
       </c>
       <c r="M52" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N52" t="s">
+        <v>689</v>
+      </c>
+      <c r="O52" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>268</v>
       </c>
@@ -3311,7 +6584,7 @@
         <v>272</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>273</v>
@@ -3320,10 +6593,16 @@
         <v>7</v>
       </c>
       <c r="M53" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N53" t="s">
+        <v>690</v>
+      </c>
+      <c r="O53" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -3352,7 +6631,7 @@
         <v>272</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="s">
         <v>273</v>
@@ -3361,10 +6640,16 @@
         <v>7</v>
       </c>
       <c r="M54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N54" t="s">
+        <v>691</v>
+      </c>
+      <c r="O54" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -3393,7 +6678,7 @@
         <v>272</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="s">
         <v>273</v>
@@ -3402,10 +6687,16 @@
         <v>7</v>
       </c>
       <c r="M55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N55" t="s">
+        <v>692</v>
+      </c>
+      <c r="O55" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3434,7 +6725,7 @@
         <v>272</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s">
         <v>273</v>
@@ -3443,10 +6734,16 @@
         <v>7</v>
       </c>
       <c r="M56" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N56" t="s">
+        <v>693</v>
+      </c>
+      <c r="O56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -3475,7 +6772,7 @@
         <v>272</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="s">
         <v>273</v>
@@ -3484,10 +6781,16 @@
         <v>7</v>
       </c>
       <c r="M57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N57" t="s">
+        <v>694</v>
+      </c>
+      <c r="O57" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>268</v>
       </c>
@@ -3516,7 +6819,7 @@
         <v>272</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
         <v>273</v>
@@ -3525,10 +6828,16 @@
         <v>7</v>
       </c>
       <c r="M58" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N58" t="s">
+        <v>695</v>
+      </c>
+      <c r="O58" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>268</v>
       </c>
@@ -3557,7 +6866,7 @@
         <v>272</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
         <v>273</v>
@@ -3566,10 +6875,16 @@
         <v>7</v>
       </c>
       <c r="M59" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N59" t="s">
+        <v>696</v>
+      </c>
+      <c r="O59" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>268</v>
       </c>
@@ -3598,7 +6913,7 @@
         <v>272</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
         <v>273</v>
@@ -3607,10 +6922,16 @@
         <v>7</v>
       </c>
       <c r="M60" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N60" t="s">
+        <v>697</v>
+      </c>
+      <c r="O60" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>268</v>
       </c>
@@ -3639,7 +6960,7 @@
         <v>272</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="s">
         <v>273</v>
@@ -3648,10 +6969,16 @@
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N61" t="s">
+        <v>698</v>
+      </c>
+      <c r="O61" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -3680,7 +7007,7 @@
         <v>272</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="s">
         <v>273</v>
@@ -3689,10 +7016,16 @@
         <v>7</v>
       </c>
       <c r="M62" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N62" t="s">
+        <v>699</v>
+      </c>
+      <c r="O62" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>268</v>
       </c>
@@ -3721,7 +7054,7 @@
         <v>272</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="s">
         <v>273</v>
@@ -3730,10 +7063,16 @@
         <v>7</v>
       </c>
       <c r="M63" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N63" t="s">
+        <v>700</v>
+      </c>
+      <c r="O63" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>268</v>
       </c>
@@ -3762,7 +7101,7 @@
         <v>272</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>273</v>
@@ -3771,10 +7110,16 @@
         <v>7</v>
       </c>
       <c r="M64" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N64" t="s">
+        <v>701</v>
+      </c>
+      <c r="O64" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>268</v>
       </c>
@@ -3803,7 +7148,7 @@
         <v>272</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
         <v>273</v>
@@ -3812,10 +7157,16 @@
         <v>7</v>
       </c>
       <c r="M65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N65" t="s">
+        <v>702</v>
+      </c>
+      <c r="O65" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>268</v>
       </c>
@@ -3844,7 +7195,7 @@
         <v>272</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
         <v>273</v>
@@ -3853,10 +7204,16 @@
         <v>7</v>
       </c>
       <c r="M66" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N66" t="s">
+        <v>703</v>
+      </c>
+      <c r="O66" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3885,7 +7242,7 @@
         <v>272</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>273</v>
@@ -3894,10 +7251,16 @@
         <v>7</v>
       </c>
       <c r="M67" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N67" t="s">
+        <v>704</v>
+      </c>
+      <c r="O67" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>268</v>
       </c>
@@ -3926,7 +7289,7 @@
         <v>272</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="s">
         <v>273</v>
@@ -3935,10 +7298,16 @@
         <v>7</v>
       </c>
       <c r="M68" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N68" t="s">
+        <v>705</v>
+      </c>
+      <c r="O68" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>268</v>
       </c>
@@ -3967,7 +7336,7 @@
         <v>272</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
         <v>273</v>
@@ -3976,10 +7345,16 @@
         <v>7</v>
       </c>
       <c r="M69" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N69" t="s">
+        <v>706</v>
+      </c>
+      <c r="O69" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -4008,7 +7383,7 @@
         <v>272</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
         <v>273</v>
@@ -4017,10 +7392,16 @@
         <v>7</v>
       </c>
       <c r="M70" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N70" t="s">
+        <v>707</v>
+      </c>
+      <c r="O70" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>268</v>
       </c>
@@ -4049,7 +7430,7 @@
         <v>272</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
         <v>273</v>
@@ -4058,10 +7439,16 @@
         <v>7</v>
       </c>
       <c r="M71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N71" t="s">
+        <v>708</v>
+      </c>
+      <c r="O71" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>268</v>
       </c>
@@ -4090,7 +7477,7 @@
         <v>272</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
         <v>273</v>
@@ -4099,10 +7486,16 @@
         <v>7</v>
       </c>
       <c r="M72" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N72" t="s">
+        <v>709</v>
+      </c>
+      <c r="O72" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>268</v>
       </c>
@@ -4131,7 +7524,7 @@
         <v>272</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
         <v>273</v>
@@ -4140,10 +7533,16 @@
         <v>7</v>
       </c>
       <c r="M73" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N73" t="s">
+        <v>710</v>
+      </c>
+      <c r="O73" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>268</v>
       </c>
@@ -4172,7 +7571,7 @@
         <v>272</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s">
         <v>273</v>
@@ -4181,10 +7580,16 @@
         <v>7</v>
       </c>
       <c r="M74" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N74" t="s">
+        <v>711</v>
+      </c>
+      <c r="O74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>268</v>
       </c>
@@ -4213,7 +7618,7 @@
         <v>272</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
         <v>273</v>
@@ -4222,10 +7627,16 @@
         <v>7</v>
       </c>
       <c r="M75" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N75" t="s">
+        <v>712</v>
+      </c>
+      <c r="O75" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>268</v>
       </c>
@@ -4254,7 +7665,7 @@
         <v>272</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="s">
         <v>273</v>
@@ -4263,10 +7674,16 @@
         <v>7</v>
       </c>
       <c r="M76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N76" t="s">
+        <v>713</v>
+      </c>
+      <c r="O76" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>268</v>
       </c>
@@ -4295,7 +7712,7 @@
         <v>272</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="s">
         <v>273</v>
@@ -4304,10 +7721,16 @@
         <v>7</v>
       </c>
       <c r="M77" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N77" t="s">
+        <v>714</v>
+      </c>
+      <c r="O77" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -4336,7 +7759,7 @@
         <v>272</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="s">
         <v>273</v>
@@ -4345,10 +7768,16 @@
         <v>7</v>
       </c>
       <c r="M78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="N78" t="s">
+        <v>715</v>
+      </c>
+      <c r="O78" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>268</v>
       </c>
@@ -4377,7 +7806,7 @@
         <v>272</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
         <v>273</v>
@@ -4386,11 +7815,4055 @@
         <v>7</v>
       </c>
       <c r="M79" t="s">
+        <v>717</v>
+      </c>
+      <c r="N79" t="s">
+        <v>716</v>
+      </c>
+      <c r="O79" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+      <c r="E80" t="s">
+        <v>270</v>
+      </c>
+      <c r="F80" t="s">
+        <v>277</v>
+      </c>
+      <c r="G80" t="s">
+        <v>271</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>272</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>273</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
         <v>274</v>
       </c>
+      <c r="N80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" t="s">
+        <v>279</v>
+      </c>
+      <c r="C81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81" t="s">
+        <v>310</v>
+      </c>
+      <c r="G81" t="s">
+        <v>271</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>272</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81" t="s">
+        <v>273</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81" t="s">
+        <v>274</v>
+      </c>
+      <c r="N81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82" t="s">
+        <v>290</v>
+      </c>
+      <c r="G82" t="s">
+        <v>271</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>272</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
+        <v>273</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
+        <v>274</v>
+      </c>
+      <c r="N82" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" t="s">
+        <v>270</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G83" t="s">
+        <v>271</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>272</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>273</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83" t="s">
+        <v>274</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>268</v>
+      </c>
+      <c r="B84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" t="s">
+        <v>292</v>
+      </c>
+      <c r="E84" t="s">
+        <v>270</v>
+      </c>
+      <c r="F84" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" t="s">
+        <v>271</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>272</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>273</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84" t="s">
+        <v>274</v>
+      </c>
+      <c r="N84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>268</v>
+      </c>
+      <c r="B85" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" t="s">
+        <v>294</v>
+      </c>
+      <c r="G85" t="s">
+        <v>271</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>272</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>273</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>274</v>
+      </c>
+      <c r="N85" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" t="s">
+        <v>339</v>
+      </c>
+      <c r="E86" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" t="s">
+        <v>295</v>
+      </c>
+      <c r="G86" t="s">
+        <v>271</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>272</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>273</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86" t="s">
+        <v>274</v>
+      </c>
+      <c r="N86" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" t="s">
+        <v>270</v>
+      </c>
+      <c r="F87" t="s">
+        <v>299</v>
+      </c>
+      <c r="G87" t="s">
+        <v>271</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>272</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>273</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87" t="s">
+        <v>274</v>
+      </c>
+      <c r="N87" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>268</v>
+      </c>
+      <c r="B88" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" t="s">
+        <v>300</v>
+      </c>
+      <c r="E88" t="s">
+        <v>270</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G88" t="s">
+        <v>271</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>272</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>273</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88" t="s">
+        <v>274</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" t="s">
+        <v>301</v>
+      </c>
+      <c r="E89" t="s">
+        <v>270</v>
+      </c>
+      <c r="F89" t="s">
+        <v>544</v>
+      </c>
+      <c r="G89" t="s">
+        <v>271</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>272</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>273</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89" t="s">
+        <v>274</v>
+      </c>
+      <c r="N89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" t="s">
+        <v>308</v>
+      </c>
+      <c r="G90" t="s">
+        <v>271</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>272</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90" t="s">
+        <v>273</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
+        <v>274</v>
+      </c>
+      <c r="N90" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91" t="s">
+        <v>270</v>
+      </c>
+      <c r="F91" t="s">
+        <v>316</v>
+      </c>
+      <c r="G91" t="s">
+        <v>271</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>272</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>273</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>274</v>
+      </c>
+      <c r="N91" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" t="s">
+        <v>322</v>
+      </c>
+      <c r="E92" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" t="s">
+        <v>319</v>
+      </c>
+      <c r="G92" t="s">
+        <v>271</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>272</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92" t="s">
+        <v>273</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92" t="s">
+        <v>274</v>
+      </c>
+      <c r="N92" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" t="s">
+        <v>323</v>
+      </c>
+      <c r="E93" t="s">
+        <v>270</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G93" t="s">
+        <v>271</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>272</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>273</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93" t="s">
+        <v>274</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>268</v>
+      </c>
+      <c r="B94" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" t="s">
+        <v>325</v>
+      </c>
+      <c r="E94" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" t="s">
+        <v>546</v>
+      </c>
+      <c r="G94" t="s">
+        <v>271</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94" t="s">
+        <v>272</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>273</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94" t="s">
+        <v>274</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" t="s">
+        <v>328</v>
+      </c>
+      <c r="E95" t="s">
+        <v>270</v>
+      </c>
+      <c r="F95" t="s">
+        <v>329</v>
+      </c>
+      <c r="G95" t="s">
+        <v>271</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>272</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>273</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>274</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" t="s">
+        <v>330</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L96" s="4">
+        <v>3</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97" t="s">
+        <v>337</v>
+      </c>
+      <c r="E97" t="s">
+        <v>270</v>
+      </c>
+      <c r="F97" t="s">
+        <v>335</v>
+      </c>
+      <c r="G97" t="s">
+        <v>271</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>272</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>273</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" t="s">
+        <v>274</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" t="s">
+        <v>332</v>
+      </c>
+      <c r="C98" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" t="s">
+        <v>270</v>
+      </c>
+      <c r="G98" t="s">
+        <v>271</v>
+      </c>
+      <c r="I98" t="s">
+        <v>272</v>
+      </c>
+      <c r="K98" t="s">
+        <v>273</v>
+      </c>
+      <c r="M98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>268</v>
+      </c>
+      <c r="B99" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" t="s">
+        <v>270</v>
+      </c>
+      <c r="G99" t="s">
+        <v>271</v>
+      </c>
+      <c r="I99" t="s">
+        <v>272</v>
+      </c>
+      <c r="K99" t="s">
+        <v>273</v>
+      </c>
+      <c r="M99" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>268</v>
+      </c>
+      <c r="B100" t="s">
+        <v>341</v>
+      </c>
+      <c r="C100" t="s">
+        <v>269</v>
+      </c>
+      <c r="E100" t="s">
+        <v>270</v>
+      </c>
+      <c r="G100" t="s">
+        <v>271</v>
+      </c>
+      <c r="I100" t="s">
+        <v>272</v>
+      </c>
+      <c r="K100" t="s">
+        <v>273</v>
+      </c>
+      <c r="M100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" t="s">
+        <v>349</v>
+      </c>
+      <c r="E101" t="s">
+        <v>270</v>
+      </c>
+      <c r="F101" t="s">
+        <v>346</v>
+      </c>
+      <c r="G101" t="s">
+        <v>271</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>272</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>273</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101" t="s">
+        <v>274</v>
+      </c>
+      <c r="N101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" t="s">
+        <v>342</v>
+      </c>
+      <c r="C102" t="s">
+        <v>269</v>
+      </c>
+      <c r="D102" t="s">
+        <v>350</v>
+      </c>
+      <c r="E102" t="s">
+        <v>270</v>
+      </c>
+      <c r="F102" t="s">
+        <v>347</v>
+      </c>
+      <c r="G102" t="s">
+        <v>271</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>272</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>273</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102" t="s">
+        <v>274</v>
+      </c>
+      <c r="N102" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103" t="s">
+        <v>353</v>
+      </c>
+      <c r="E103" t="s">
+        <v>270</v>
+      </c>
+      <c r="F103" t="s">
+        <v>352</v>
+      </c>
+      <c r="G103" t="s">
+        <v>271</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>272</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>273</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103" t="s">
+        <v>274</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104" t="s">
+        <v>270</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G104" t="s">
+        <v>271</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104" t="s">
+        <v>272</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>273</v>
+      </c>
+      <c r="L104">
+        <v>7</v>
+      </c>
+      <c r="M104" t="s">
+        <v>274</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>268</v>
+      </c>
+      <c r="B105" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105" t="s">
+        <v>357</v>
+      </c>
+      <c r="E105" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105" t="s">
+        <v>549</v>
+      </c>
+      <c r="G105" t="s">
+        <v>271</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105" t="s">
+        <v>272</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>273</v>
+      </c>
+      <c r="L105">
+        <v>7</v>
+      </c>
+      <c r="M105" t="s">
+        <v>274</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>268</v>
+      </c>
+      <c r="B106" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" t="s">
+        <v>360</v>
+      </c>
+      <c r="E106" t="s">
+        <v>270</v>
+      </c>
+      <c r="F106" t="s">
+        <v>550</v>
+      </c>
+      <c r="G106" t="s">
+        <v>271</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>272</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>273</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>274</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" t="s">
+        <v>365</v>
+      </c>
+      <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" t="s">
+        <v>362</v>
+      </c>
+      <c r="E107" t="s">
+        <v>270</v>
+      </c>
+      <c r="F107" t="s">
+        <v>363</v>
+      </c>
+      <c r="G107" t="s">
+        <v>271</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>272</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>273</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107" t="s">
+        <v>274</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>268</v>
+      </c>
+      <c r="B108" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" t="s">
+        <v>270</v>
+      </c>
+      <c r="F108" t="s">
+        <v>368</v>
+      </c>
+      <c r="G108" t="s">
+        <v>271</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>272</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>273</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108" t="s">
+        <v>274</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>268</v>
+      </c>
+      <c r="B109" t="s">
+        <v>370</v>
+      </c>
+      <c r="C109" t="s">
+        <v>269</v>
+      </c>
+      <c r="D109" t="s">
+        <v>371</v>
+      </c>
+      <c r="E109" t="s">
+        <v>270</v>
+      </c>
+      <c r="F109" t="s">
+        <v>372</v>
+      </c>
+      <c r="G109" t="s">
+        <v>271</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>272</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>273</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109" t="s">
+        <v>274</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" t="s">
+        <v>374</v>
+      </c>
+      <c r="C110" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" t="s">
+        <v>376</v>
+      </c>
+      <c r="E110" t="s">
+        <v>270</v>
+      </c>
+      <c r="F110" t="s">
+        <v>375</v>
+      </c>
+      <c r="G110" t="s">
+        <v>271</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>272</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>273</v>
+      </c>
+      <c r="L110">
+        <v>7</v>
+      </c>
+      <c r="M110" t="s">
+        <v>274</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" t="s">
+        <v>378</v>
+      </c>
+      <c r="C111" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111" t="s">
+        <v>379</v>
+      </c>
+      <c r="E111" t="s">
+        <v>270</v>
+      </c>
+      <c r="F111" t="s">
+        <v>380</v>
+      </c>
+      <c r="G111" t="s">
+        <v>271</v>
+      </c>
+      <c r="H111">
+        <v>4</v>
+      </c>
+      <c r="I111" t="s">
+        <v>272</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>273</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" t="s">
+        <v>274</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>268</v>
+      </c>
+      <c r="B112" t="s">
+        <v>383</v>
+      </c>
+      <c r="C112" t="s">
+        <v>269</v>
+      </c>
+      <c r="D112" t="s">
+        <v>384</v>
+      </c>
+      <c r="E112" t="s">
+        <v>270</v>
+      </c>
+      <c r="F112" t="s">
+        <v>381</v>
+      </c>
+      <c r="G112" t="s">
+        <v>271</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112" t="s">
+        <v>272</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>273</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" t="s">
+        <v>274</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113" t="s">
+        <v>387</v>
+      </c>
+      <c r="E113" t="s">
+        <v>270</v>
+      </c>
+      <c r="G113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>272</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>273</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" t="s">
+        <v>269</v>
+      </c>
+      <c r="D114" t="s">
+        <v>389</v>
+      </c>
+      <c r="E114" t="s">
+        <v>270</v>
+      </c>
+      <c r="F114" t="s">
+        <v>390</v>
+      </c>
+      <c r="G114" t="s">
+        <v>271</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
+        <v>272</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>273</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114" t="s">
+        <v>274</v>
+      </c>
+      <c r="N114" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" t="s">
+        <v>393</v>
+      </c>
+      <c r="C115" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" t="s">
+        <v>394</v>
+      </c>
+      <c r="E115" t="s">
+        <v>270</v>
+      </c>
+      <c r="F115" t="s">
+        <v>395</v>
+      </c>
+      <c r="G115" t="s">
+        <v>271</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>272</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>273</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115" t="s">
+        <v>274</v>
+      </c>
+      <c r="N115" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>268</v>
+      </c>
+      <c r="B116" t="s">
+        <v>397</v>
+      </c>
+      <c r="C116" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" t="s">
+        <v>398</v>
+      </c>
+      <c r="E116" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" t="s">
+        <v>399</v>
+      </c>
+      <c r="G116" t="s">
+        <v>271</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>272</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>273</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116" t="s">
+        <v>274</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>268</v>
+      </c>
+      <c r="B117" t="s">
+        <v>401</v>
+      </c>
+      <c r="C117" t="s">
+        <v>269</v>
+      </c>
+      <c r="D117" t="s">
+        <v>402</v>
+      </c>
+      <c r="E117" t="s">
+        <v>270</v>
+      </c>
+      <c r="F117" t="s">
+        <v>403</v>
+      </c>
+      <c r="G117" t="s">
+        <v>271</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>272</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117" t="s">
+        <v>273</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117" t="s">
+        <v>274</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" t="s">
+        <v>405</v>
+      </c>
+      <c r="C118" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118" t="s">
+        <v>406</v>
+      </c>
+      <c r="E118" t="s">
+        <v>270</v>
+      </c>
+      <c r="F118" t="s">
+        <v>407</v>
+      </c>
+      <c r="G118" t="s">
+        <v>271</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118" t="s">
+        <v>272</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118" t="s">
+        <v>273</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118" t="s">
+        <v>274</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" t="s">
+        <v>409</v>
+      </c>
+      <c r="C119" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" t="s">
+        <v>414</v>
+      </c>
+      <c r="E119" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" t="s">
+        <v>410</v>
+      </c>
+      <c r="G119" t="s">
+        <v>271</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>272</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119" t="s">
+        <v>273</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119" t="s">
+        <v>274</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" t="s">
+        <v>412</v>
+      </c>
+      <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" t="s">
+        <v>415</v>
+      </c>
+      <c r="E120" t="s">
+        <v>270</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G120" t="s">
+        <v>271</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120" t="s">
+        <v>272</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>273</v>
+      </c>
+      <c r="L120">
+        <v>7</v>
+      </c>
+      <c r="M120" t="s">
+        <v>274</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D121" t="s">
+        <v>417</v>
+      </c>
+      <c r="E121" t="s">
+        <v>270</v>
+      </c>
+      <c r="F121" t="s">
+        <v>553</v>
+      </c>
+      <c r="G121" t="s">
+        <v>271</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121" t="s">
+        <v>272</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>273</v>
+      </c>
+      <c r="L121">
+        <v>7</v>
+      </c>
+      <c r="M121" t="s">
+        <v>274</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" t="s">
+        <v>431</v>
+      </c>
+      <c r="C122" t="s">
+        <v>269</v>
+      </c>
+      <c r="D122" t="s">
+        <v>419</v>
+      </c>
+      <c r="E122" t="s">
+        <v>270</v>
+      </c>
+      <c r="F122" t="s">
+        <v>420</v>
+      </c>
+      <c r="G122" t="s">
+        <v>271</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>272</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>273</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122" t="s">
+        <v>274</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" t="s">
+        <v>432</v>
+      </c>
+      <c r="C123" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" t="s">
+        <v>423</v>
+      </c>
+      <c r="E123" t="s">
+        <v>270</v>
+      </c>
+      <c r="F123" t="s">
+        <v>422</v>
+      </c>
+      <c r="G123" t="s">
+        <v>271</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>272</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>273</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123" t="s">
+        <v>274</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" t="s">
+        <v>433</v>
+      </c>
+      <c r="C124" t="s">
+        <v>269</v>
+      </c>
+      <c r="D124" t="s">
+        <v>424</v>
+      </c>
+      <c r="E124" t="s">
+        <v>270</v>
+      </c>
+      <c r="F124" t="s">
+        <v>425</v>
+      </c>
+      <c r="G124" t="s">
+        <v>271</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>272</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>273</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124" t="s">
+        <v>274</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" t="s">
+        <v>434</v>
+      </c>
+      <c r="C125" t="s">
+        <v>269</v>
+      </c>
+      <c r="D125" t="s">
+        <v>428</v>
+      </c>
+      <c r="E125" t="s">
+        <v>270</v>
+      </c>
+      <c r="F125" t="s">
+        <v>429</v>
+      </c>
+      <c r="G125" t="s">
+        <v>271</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>272</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>273</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125" t="s">
+        <v>274</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" t="s">
+        <v>435</v>
+      </c>
+      <c r="C126" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126" t="s">
+        <v>436</v>
+      </c>
+      <c r="E126" t="s">
+        <v>270</v>
+      </c>
+      <c r="F126" t="s">
+        <v>437</v>
+      </c>
+      <c r="G126" t="s">
+        <v>271</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>272</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126" t="s">
+        <v>273</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126" t="s">
+        <v>274</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" t="s">
+        <v>441</v>
+      </c>
+      <c r="C127" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" t="s">
+        <v>439</v>
+      </c>
+      <c r="E127" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" t="s">
+        <v>440</v>
+      </c>
+      <c r="G127" t="s">
+        <v>271</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127" t="s">
+        <v>443</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
+        <v>273</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127" t="s">
+        <v>566</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" t="s">
+        <v>444</v>
+      </c>
+      <c r="C128" t="s">
+        <v>269</v>
+      </c>
+      <c r="D128" t="s">
+        <v>447</v>
+      </c>
+      <c r="E128" t="s">
+        <v>270</v>
+      </c>
+      <c r="F128" t="s">
+        <v>445</v>
+      </c>
+      <c r="G128" t="s">
+        <v>271</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>443</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128" t="s">
+        <v>273</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128" t="s">
+        <v>274</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>268</v>
+      </c>
+      <c r="B129" t="s">
+        <v>446</v>
+      </c>
+      <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" t="s">
+        <v>448</v>
+      </c>
+      <c r="E129" t="s">
+        <v>270</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G129" t="s">
+        <v>271</v>
+      </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+      <c r="I129" t="s">
+        <v>443</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129" t="s">
+        <v>273</v>
+      </c>
+      <c r="L129">
+        <v>7</v>
+      </c>
+      <c r="M129" t="s">
+        <v>274</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B130" t="s">
+        <v>450</v>
+      </c>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" t="s">
+        <v>451</v>
+      </c>
+      <c r="E130" t="s">
+        <v>270</v>
+      </c>
+      <c r="F130" t="s">
+        <v>452</v>
+      </c>
+      <c r="G130" t="s">
+        <v>271</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130" t="s">
+        <v>443</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>273</v>
+      </c>
+      <c r="L130">
+        <v>7</v>
+      </c>
+      <c r="M130" t="s">
+        <v>274</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s">
+        <v>442</v>
+      </c>
+      <c r="C131" t="s">
+        <v>269</v>
+      </c>
+      <c r="D131" t="s">
+        <v>454</v>
+      </c>
+      <c r="E131" t="s">
+        <v>270</v>
+      </c>
+      <c r="F131" t="s">
+        <v>455</v>
+      </c>
+      <c r="G131" t="s">
+        <v>271</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>443</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>273</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131" t="s">
+        <v>274</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H132" s="4">
+        <v>2</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="J132" s="4">
+        <v>2</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L132" s="4">
+        <v>1</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="O132" s="4"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H133" s="4">
+        <v>3</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L133" s="4">
+        <v>3</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="O133" s="4"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
+        <v>494</v>
+      </c>
+      <c r="C134" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" t="s">
+        <v>462</v>
+      </c>
+      <c r="E134" t="s">
+        <v>270</v>
+      </c>
+      <c r="F134" t="s">
+        <v>461</v>
+      </c>
+      <c r="G134" t="s">
+        <v>271</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134" t="s">
+        <v>443</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>273</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134" t="s">
+        <v>274</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>466</v>
+      </c>
+      <c r="C135" t="s">
+        <v>269</v>
+      </c>
+      <c r="D135" t="s">
+        <v>464</v>
+      </c>
+      <c r="E135" t="s">
+        <v>270</v>
+      </c>
+      <c r="F135" t="s">
+        <v>465</v>
+      </c>
+      <c r="G135" t="s">
+        <v>271</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>443</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>273</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135" t="s">
+        <v>274</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>467</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="D136" t="s">
+        <v>469</v>
+      </c>
+      <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G136" t="s">
+        <v>271</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136" t="s">
+        <v>443</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>273</v>
+      </c>
+      <c r="L136">
+        <v>7</v>
+      </c>
+      <c r="M136" t="s">
+        <v>274</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>468</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" t="s">
+        <v>470</v>
+      </c>
+      <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
+        <v>471</v>
+      </c>
+      <c r="G137" t="s">
+        <v>271</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137" t="s">
+        <v>443</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>273</v>
+      </c>
+      <c r="L137">
+        <v>7</v>
+      </c>
+      <c r="M137" t="s">
+        <v>274</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" t="s">
+        <v>475</v>
+      </c>
+      <c r="C138" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" t="s">
+        <v>478</v>
+      </c>
+      <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
+        <v>479</v>
+      </c>
+      <c r="G138" t="s">
+        <v>271</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>443</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>273</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138" t="s">
+        <v>274</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" t="s">
+        <v>480</v>
+      </c>
+      <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" t="s">
+        <v>481</v>
+      </c>
+      <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
+        <v>482</v>
+      </c>
+      <c r="G139" t="s">
+        <v>271</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>443</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
+        <v>273</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139" t="s">
+        <v>274</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
+        <v>268</v>
+      </c>
+      <c r="B140" t="s">
+        <v>484</v>
+      </c>
+      <c r="C140" t="s">
+        <v>269</v>
+      </c>
+      <c r="D140" t="s">
+        <v>476</v>
+      </c>
+      <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G140" t="s">
+        <v>271</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>443</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>273</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" t="s">
+        <v>274</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>268</v>
+      </c>
+      <c r="B141" t="s">
+        <v>486</v>
+      </c>
+      <c r="C141" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" t="s">
+        <v>487</v>
+      </c>
+      <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
+        <v>488</v>
+      </c>
+      <c r="G141" t="s">
+        <v>271</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>443</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>273</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141" t="s">
+        <v>274</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" t="s">
+        <v>491</v>
+      </c>
+      <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
+        <v>492</v>
+      </c>
+      <c r="G142" t="s">
+        <v>271</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142" t="s">
+        <v>443</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142" t="s">
+        <v>273</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142" t="s">
+        <v>274</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
+        <v>268</v>
+      </c>
+      <c r="B143" t="s">
+        <v>495</v>
+      </c>
+      <c r="C143" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" t="s">
+        <v>508</v>
+      </c>
+      <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
+        <v>496</v>
+      </c>
+      <c r="G143" t="s">
+        <v>271</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>443</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143" t="s">
+        <v>273</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143" t="s">
+        <v>274</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" t="s">
+        <v>498</v>
+      </c>
+      <c r="C144" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" t="s">
+        <v>509</v>
+      </c>
+      <c r="E144" t="s">
+        <v>270</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G144" t="s">
+        <v>271</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144" t="s">
+        <v>443</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>273</v>
+      </c>
+      <c r="L144">
+        <v>7</v>
+      </c>
+      <c r="M144" t="s">
+        <v>274</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>268</v>
+      </c>
+      <c r="B145" t="s">
+        <v>500</v>
+      </c>
+      <c r="C145" t="s">
+        <v>269</v>
+      </c>
+      <c r="D145" t="s">
+        <v>510</v>
+      </c>
+      <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
+        <v>501</v>
+      </c>
+      <c r="G145" t="s">
+        <v>271</v>
+      </c>
+      <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145" t="s">
+        <v>443</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" t="s">
+        <v>273</v>
+      </c>
+      <c r="L145">
+        <v>7</v>
+      </c>
+      <c r="M145" t="s">
+        <v>274</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" t="s">
+        <v>503</v>
+      </c>
+      <c r="C146" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146" t="s">
+        <v>504</v>
+      </c>
+      <c r="E146" t="s">
+        <v>270</v>
+      </c>
+      <c r="F146" t="s">
+        <v>505</v>
+      </c>
+      <c r="G146" t="s">
+        <v>271</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>443</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146" t="s">
+        <v>273</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146" t="s">
+        <v>274</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>268</v>
+      </c>
+      <c r="B147" t="s">
+        <v>507</v>
+      </c>
+      <c r="C147" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147" t="s">
+        <v>511</v>
+      </c>
+      <c r="E147" t="s">
+        <v>270</v>
+      </c>
+      <c r="F147" t="s">
+        <v>512</v>
+      </c>
+      <c r="G147" t="s">
+        <v>271</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>443</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147" t="s">
+        <v>273</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147" t="s">
+        <v>274</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>268</v>
+      </c>
+      <c r="B148" t="s">
+        <v>514</v>
+      </c>
+      <c r="C148" t="s">
+        <v>269</v>
+      </c>
+      <c r="D148" t="s">
+        <v>515</v>
+      </c>
+      <c r="E148" t="s">
+        <v>270</v>
+      </c>
+      <c r="F148" t="s">
+        <v>516</v>
+      </c>
+      <c r="G148" t="s">
+        <v>271</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>443</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>273</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" t="s">
+        <v>274</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B149" t="s">
+        <v>518</v>
+      </c>
+      <c r="C149" t="s">
+        <v>269</v>
+      </c>
+      <c r="D149" t="s">
+        <v>522</v>
+      </c>
+      <c r="E149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F149" t="s">
+        <v>519</v>
+      </c>
+      <c r="G149" t="s">
+        <v>271</v>
+      </c>
+      <c r="H149" t="s">
+        <v>520</v>
+      </c>
+      <c r="I149" t="s">
+        <v>443</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>273</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" t="s">
+        <v>274</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" t="s">
+        <v>525</v>
+      </c>
+      <c r="C150" t="s">
+        <v>269</v>
+      </c>
+      <c r="D150" t="s">
+        <v>524</v>
+      </c>
+      <c r="E150" t="s">
+        <v>270</v>
+      </c>
+      <c r="F150" t="s">
+        <v>523</v>
+      </c>
+      <c r="G150" t="s">
+        <v>271</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>443</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>273</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" t="s">
+        <v>274</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" t="s">
+        <v>527</v>
+      </c>
+      <c r="C151" t="s">
+        <v>269</v>
+      </c>
+      <c r="D151" t="s">
+        <v>531</v>
+      </c>
+      <c r="E151" t="s">
+        <v>270</v>
+      </c>
+      <c r="F151" t="s">
+        <v>528</v>
+      </c>
+      <c r="G151" t="s">
+        <v>271</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>443</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>273</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151" t="s">
+        <v>274</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B152" t="s">
+        <v>530</v>
+      </c>
+      <c r="C152" t="s">
+        <v>269</v>
+      </c>
+      <c r="D152" t="s">
+        <v>532</v>
+      </c>
+      <c r="E152" t="s">
+        <v>270</v>
+      </c>
+      <c r="F152" t="s">
+        <v>533</v>
+      </c>
+      <c r="G152" t="s">
+        <v>271</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>443</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>273</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152" t="s">
+        <v>274</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" t="s">
+        <v>534</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
+      </c>
+      <c r="D153" t="s">
+        <v>535</v>
+      </c>
+      <c r="E153" t="s">
+        <v>270</v>
+      </c>
+      <c r="F153" t="s">
+        <v>533</v>
+      </c>
+      <c r="G153" t="s">
+        <v>271</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>443</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>273</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153" t="s">
+        <v>274</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B154" t="s">
+        <v>538</v>
+      </c>
+      <c r="C154" t="s">
+        <v>269</v>
+      </c>
+      <c r="D154" t="s">
+        <v>539</v>
+      </c>
+      <c r="E154" t="s">
+        <v>270</v>
+      </c>
+      <c r="F154" t="s">
+        <v>540</v>
+      </c>
+      <c r="G154" t="s">
+        <v>271</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>443</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154" t="s">
+        <v>273</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" t="s">
+        <v>274</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B155" t="s">
+        <v>542</v>
+      </c>
+      <c r="C155" t="s">
+        <v>269</v>
+      </c>
+      <c r="D155" t="s">
+        <v>571</v>
+      </c>
+      <c r="E155" t="s">
+        <v>270</v>
+      </c>
+      <c r="F155" t="s">
+        <v>543</v>
+      </c>
+      <c r="G155" t="s">
+        <v>271</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155" t="s">
+        <v>443</v>
+      </c>
+      <c r="J155">
+        <v>3</v>
+      </c>
+      <c r="K155" t="s">
+        <v>273</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155" t="s">
+        <v>274</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B156" t="s">
+        <v>570</v>
+      </c>
+      <c r="C156" t="s">
+        <v>269</v>
+      </c>
+      <c r="D156" t="s">
+        <v>572</v>
+      </c>
+      <c r="E156" t="s">
+        <v>270</v>
+      </c>
+      <c r="F156" t="s">
+        <v>573</v>
+      </c>
+      <c r="G156" t="s">
+        <v>271</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156" t="s">
+        <v>443</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156" t="s">
+        <v>273</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156" t="s">
+        <v>274</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B157" t="s">
+        <v>575</v>
+      </c>
+      <c r="C157" t="s">
+        <v>269</v>
+      </c>
+      <c r="D157" t="s">
+        <v>576</v>
+      </c>
+      <c r="E157" t="s">
+        <v>270</v>
+      </c>
+      <c r="F157" t="s">
+        <v>577</v>
+      </c>
+      <c r="G157" t="s">
+        <v>271</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157" t="s">
+        <v>443</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" t="s">
+        <v>273</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157" t="s">
+        <v>274</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" t="s">
+        <v>579</v>
+      </c>
+      <c r="C158" t="s">
+        <v>269</v>
+      </c>
+      <c r="D158" t="s">
+        <v>580</v>
+      </c>
+      <c r="E158" t="s">
+        <v>270</v>
+      </c>
+      <c r="F158" t="s">
+        <v>581</v>
+      </c>
+      <c r="G158" t="s">
+        <v>271</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158" t="s">
+        <v>443</v>
+      </c>
+      <c r="J158">
+        <v>3</v>
+      </c>
+      <c r="K158" t="s">
+        <v>273</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158" t="s">
+        <v>274</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B159" t="s">
+        <v>583</v>
+      </c>
+      <c r="C159" t="s">
+        <v>269</v>
+      </c>
+      <c r="D159" t="s">
+        <v>584</v>
+      </c>
+      <c r="E159" t="s">
+        <v>270</v>
+      </c>
+      <c r="F159" t="s">
+        <v>585</v>
+      </c>
+      <c r="G159" t="s">
+        <v>271</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>443</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>273</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159" t="s">
+        <v>274</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B160" t="s">
+        <v>587</v>
+      </c>
+      <c r="C160" t="s">
+        <v>269</v>
+      </c>
+      <c r="D160" t="s">
+        <v>588</v>
+      </c>
+      <c r="E160" t="s">
+        <v>270</v>
+      </c>
+      <c r="F160" t="s">
+        <v>589</v>
+      </c>
+      <c r="G160" t="s">
+        <v>271</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>443</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>273</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160" t="s">
+        <v>274</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B161" t="s">
+        <v>591</v>
+      </c>
+      <c r="C161" t="s">
+        <v>269</v>
+      </c>
+      <c r="D161" t="s">
+        <v>592</v>
+      </c>
+      <c r="E161" t="s">
+        <v>270</v>
+      </c>
+      <c r="F161" t="s">
+        <v>593</v>
+      </c>
+      <c r="G161" t="s">
+        <v>271</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161" t="s">
+        <v>443</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161" t="s">
+        <v>273</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161" t="s">
+        <v>274</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B162" t="s">
+        <v>595</v>
+      </c>
+      <c r="C162" t="s">
+        <v>269</v>
+      </c>
+      <c r="D162" t="s">
+        <v>596</v>
+      </c>
+      <c r="E162" t="s">
+        <v>270</v>
+      </c>
+      <c r="F162" t="s">
+        <v>597</v>
+      </c>
+      <c r="G162" t="s">
+        <v>271</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162" t="s">
+        <v>443</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162" t="s">
+        <v>273</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162" t="s">
+        <v>274</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B163" t="s">
+        <v>598</v>
+      </c>
+      <c r="C163" t="s">
+        <v>269</v>
+      </c>
+      <c r="D163" t="s">
+        <v>599</v>
+      </c>
+      <c r="E163" t="s">
+        <v>270</v>
+      </c>
+      <c r="F163" t="s">
+        <v>601</v>
+      </c>
+      <c r="G163" t="s">
+        <v>271</v>
+      </c>
+      <c r="H163">
+        <v>4</v>
+      </c>
+      <c r="I163" t="s">
+        <v>443</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" t="s">
+        <v>273</v>
+      </c>
+      <c r="L163">
+        <v>7</v>
+      </c>
+      <c r="M163" t="s">
+        <v>274</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164" t="s">
+        <v>603</v>
+      </c>
+      <c r="C164" t="s">
+        <v>269</v>
+      </c>
+      <c r="D164" t="s">
+        <v>604</v>
+      </c>
+      <c r="E164" t="s">
+        <v>270</v>
+      </c>
+      <c r="F164" t="s">
+        <v>605</v>
+      </c>
+      <c r="G164" t="s">
+        <v>271</v>
+      </c>
+      <c r="H164">
+        <v>4</v>
+      </c>
+      <c r="I164" t="s">
+        <v>443</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" t="s">
+        <v>273</v>
+      </c>
+      <c r="L164">
+        <v>7</v>
+      </c>
+      <c r="M164" t="s">
+        <v>274</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B165" t="s">
+        <v>607</v>
+      </c>
+      <c r="C165" t="s">
+        <v>269</v>
+      </c>
+      <c r="D165" t="s">
+        <v>608</v>
+      </c>
+      <c r="E165" t="s">
+        <v>270</v>
+      </c>
+      <c r="F165" t="s">
+        <v>609</v>
+      </c>
+      <c r="G165" t="s">
+        <v>271</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>443</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" t="s">
+        <v>273</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165" t="s">
+        <v>274</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B166" t="s">
+        <v>611</v>
+      </c>
+      <c r="C166" t="s">
+        <v>269</v>
+      </c>
+      <c r="D166" t="s">
+        <v>612</v>
+      </c>
+      <c r="E166" t="s">
+        <v>270</v>
+      </c>
+      <c r="F166" t="s">
+        <v>613</v>
+      </c>
+      <c r="G166" t="s">
+        <v>271</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166" t="s">
+        <v>443</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>273</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
+        <v>274</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" t="s">
+        <v>615</v>
+      </c>
+      <c r="C167" t="s">
+        <v>269</v>
+      </c>
+      <c r="D167" t="s">
+        <v>616</v>
+      </c>
+      <c r="E167" t="s">
+        <v>270</v>
+      </c>
+      <c r="F167" t="s">
+        <v>617</v>
+      </c>
+      <c r="G167" t="s">
+        <v>271</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>443</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167" t="s">
+        <v>273</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167" t="s">
+        <v>274</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B168" t="s">
+        <v>619</v>
+      </c>
+      <c r="C168" t="s">
+        <v>269</v>
+      </c>
+      <c r="D168" t="s">
+        <v>620</v>
+      </c>
+      <c r="E168" t="s">
+        <v>270</v>
+      </c>
+      <c r="F168" t="s">
+        <v>621</v>
+      </c>
+      <c r="G168" t="s">
+        <v>271</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>443</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168" t="s">
+        <v>273</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168" t="s">
+        <v>274</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B169" t="s">
+        <v>623</v>
+      </c>
+      <c r="C169" t="s">
+        <v>269</v>
+      </c>
+      <c r="D169" t="s">
+        <v>624</v>
+      </c>
+      <c r="E169" t="s">
+        <v>270</v>
+      </c>
+      <c r="F169" t="s">
+        <v>625</v>
+      </c>
+      <c r="G169" t="s">
+        <v>271</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>443</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>273</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169" t="s">
+        <v>274</v>
+      </c>
+      <c r="N169" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B170" t="s">
+        <v>627</v>
+      </c>
+      <c r="C170" t="s">
+        <v>269</v>
+      </c>
+      <c r="D170" t="s">
+        <v>628</v>
+      </c>
+      <c r="E170" t="s">
+        <v>270</v>
+      </c>
+      <c r="F170" t="s">
+        <v>629</v>
+      </c>
+      <c r="G170" t="s">
+        <v>271</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>443</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>273</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170" t="s">
+        <v>274</v>
+      </c>
+      <c r="N170" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B171" t="s">
+        <v>630</v>
+      </c>
+      <c r="C171" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171" t="s">
+        <v>631</v>
+      </c>
+      <c r="E171" t="s">
+        <v>270</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G171" t="s">
+        <v>271</v>
+      </c>
+      <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171" t="s">
+        <v>443</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" t="s">
+        <v>273</v>
+      </c>
+      <c r="L171">
+        <v>7</v>
+      </c>
+      <c r="M171" t="s">
+        <v>274</v>
+      </c>
+      <c r="N171" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B172" t="s">
+        <v>634</v>
+      </c>
+      <c r="C172" t="s">
+        <v>269</v>
+      </c>
+      <c r="D172" t="s">
+        <v>635</v>
+      </c>
+      <c r="E172" t="s">
+        <v>270</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G172" t="s">
+        <v>271</v>
+      </c>
+      <c r="H172">
+        <v>4</v>
+      </c>
+      <c r="I172" t="s">
+        <v>443</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>273</v>
+      </c>
+      <c r="L172">
+        <v>7</v>
+      </c>
+      <c r="M172" t="s">
+        <v>274</v>
+      </c>
+      <c r="N172" t="s">
+        <v>638</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4398,13 +11871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>240</v>
       </c>
@@ -4415,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -4426,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>244</v>
       </c>
@@ -4437,7 +11908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>246</v>
       </c>
@@ -4448,7 +11919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -4460,6 +11931,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4472,9 +11944,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>267</v>
       </c>
@@ -4482,7 +11954,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>248</v>
       </c>
@@ -4493,7 +11965,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -4504,7 +11976,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -4515,7 +11987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>257</v>
       </c>
@@ -4523,7 +11995,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -4531,7 +12003,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -4539,7 +12011,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -4548,6 +12020,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>